--- a/Acompanhamento SIF GRU.xlsx
+++ b/Acompanhamento SIF GRU.xlsx
@@ -1,88 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6af21f1686353cb4/Área de Trabalho/GUILHERME/PROJETOS PYTHON/Auto_Relatorio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1379902CB41FCF5FB5644010697652334481F550" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EB760A-8679-40A7-BF30-84A226E9A8FE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="227">
-  <si>
-    <t>Acompanhamento de Atualização SIF GRU</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="209">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>Qtde RPS</t>
+  </si>
+  <si>
+    <t>Qtde Transmitido</t>
+  </si>
+  <si>
+    <t>Qtde Erro</t>
+  </si>
+  <si>
+    <t>Qtde Transmitir</t>
+  </si>
+  <si>
+    <t>Total Transmitido</t>
+  </si>
+  <si>
+    <t>Total com Erro</t>
+  </si>
+  <si>
+    <t>Total a Transmitir</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Ultima NFSe Rot</t>
+  </si>
+  <si>
+    <t>Ultima NFSe Men PF</t>
+  </si>
+  <si>
+    <t>Ultima NFSe Men PJ</t>
+  </si>
+  <si>
+    <t>Ultima Nfse Selo</t>
+  </si>
+  <si>
+    <t>Ultima Prestação</t>
+  </si>
+  <si>
+    <t>Serviço Exportação</t>
+  </si>
+  <si>
+    <t>Mês Referencia</t>
   </si>
   <si>
     <t>Unnamed: 18</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>03/out</t>
   </si>
   <si>
-    <t>26/01/2023</t>
-  </si>
-  <si>
-    <t>Hora</t>
+    <t>30/01/2023</t>
   </si>
   <si>
     <t>12:36:00</t>
@@ -334,10 +334,10 @@
     <t>19:07:00</t>
   </si>
   <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>Usuário</t>
+    <t>08:24:00</t>
+  </si>
+  <si>
+    <t>18:41</t>
   </si>
   <si>
     <t>Pedro</t>
@@ -349,58 +349,25 @@
     <t xml:space="preserve">Guilherme </t>
   </si>
   <si>
-    <t>Qtde RPS</t>
-  </si>
-  <si>
-    <t>119588</t>
-  </si>
-  <si>
-    <t>Qtde Transmitido</t>
-  </si>
-  <si>
-    <t>119587</t>
-  </si>
-  <si>
-    <t>Qtde Erro</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Qtde Transmitir</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Total Transmitido</t>
-  </si>
-  <si>
     <t>R$ 9.496.799,00</t>
   </si>
   <si>
     <t>R$ 6.191.836,31</t>
   </si>
   <si>
-    <t>Total com Erro</t>
-  </si>
-  <si>
     <t>R$ 58,00</t>
   </si>
   <si>
     <t>R$ 0,00</t>
   </si>
   <si>
-    <t>Total a Transmitir</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
+    <t>R$ 331.704,00</t>
   </si>
   <si>
     <t>R$ 9.496.857,00</t>
   </si>
   <si>
-    <t>Ultima NFSe Rot</t>
+    <t>R$ 6.523.540,31</t>
   </si>
   <si>
     <t>2022-09-13 14:51:41.000</t>
@@ -544,7 +511,7 @@
     <t>2023-01-25 23:59:37.000</t>
   </si>
   <si>
-    <t>Ultima NFSe Men PF</t>
+    <t>2023-01-27 23:59:40.000</t>
   </si>
   <si>
     <t>2022-09-21 17:07:47.437</t>
@@ -610,9 +577,6 @@
     <t>2023-01-20 00:00:00.000</t>
   </si>
   <si>
-    <t>Ultima NFSe Men PJ</t>
-  </si>
-  <si>
     <t>2022-09-08 11:51:19.513</t>
   </si>
   <si>
@@ -628,9 +592,6 @@
     <t>2023-01-05 11:40:56.657</t>
   </si>
   <si>
-    <t>Ultima Nfse Selo</t>
-  </si>
-  <si>
     <t>2022-09-09 17:17:53.717</t>
   </si>
   <si>
@@ -661,22 +622,13 @@
     <t>2023-01-20 16:35:35.423</t>
   </si>
   <si>
-    <t>Ultima Prestação</t>
-  </si>
-  <si>
     <t>29/09/2022</t>
   </si>
   <si>
-    <t>Serviço Exportação</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Mês Referencia</t>
   </si>
   <si>
     <t>Setembro</t>
@@ -700,11 +652,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,11 +720,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -814,7 +774,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,9 +806,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,6 +858,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1055,14 +1051,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,9 +1120,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2">
+        <v>54811</v>
+      </c>
+      <c r="E2">
+        <v>54811</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4729017</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4729017</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44829</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44831</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1131,61 +1183,58 @@
       <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" t="s">
-        <v>126</v>
+      <c r="D3">
+        <v>54811</v>
+      </c>
+      <c r="E3">
+        <v>54811</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4729017</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4729017</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
-      </c>
-      <c r="P3" t="s">
-        <v>215</v>
+        <v>190</v>
+      </c>
+      <c r="P3" s="2">
+        <v>44830</v>
       </c>
       <c r="Q3" t="s">
-        <v>217</v>
-      </c>
-      <c r="R3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>54811</v>
@@ -1212,131 +1261,131 @@
         <v>4729017</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="P4" s="2">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="Q4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5">
-        <v>54811</v>
+        <v>112516</v>
       </c>
       <c r="E5">
-        <v>54811</v>
+        <v>55761</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>56755</v>
       </c>
       <c r="H5">
-        <v>4729017</v>
+        <v>4801378</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4076362</v>
       </c>
       <c r="K5">
-        <v>4729017</v>
+        <v>8877740</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N5" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="P5" s="2">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="Q5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6">
-        <v>54811</v>
+        <v>112521</v>
       </c>
       <c r="E6">
-        <v>54811</v>
+        <v>57412</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>55109</v>
       </c>
       <c r="H6">
-        <v>4729017</v>
+        <v>4920487</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4026275</v>
       </c>
       <c r="K6">
-        <v>4729017</v>
+        <v>8946762</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P6" s="2">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="Q6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44832</v>
       </c>
@@ -1344,264 +1393,264 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>112516</v>
+        <v>112521</v>
       </c>
       <c r="E7">
-        <v>55761</v>
+        <v>57748</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56755</v>
+        <v>54773</v>
       </c>
       <c r="H7">
-        <v>4801378</v>
+        <v>4942052</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4076362</v>
+        <v>4004710</v>
       </c>
       <c r="K7">
-        <v>8877740</v>
+        <v>8946762</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P7" s="2">
         <v>44831</v>
       </c>
       <c r="Q7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>112521</v>
+        <v>115883</v>
       </c>
       <c r="E8">
-        <v>57412</v>
+        <v>64387</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>55109</v>
+        <v>51496</v>
       </c>
       <c r="H8">
-        <v>4920487</v>
+        <v>5419149</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4026275</v>
+        <v>3750718</v>
       </c>
       <c r="K8">
-        <v>8946762</v>
+        <v>9169867</v>
       </c>
       <c r="L8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P8" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="Q8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>112521</v>
+        <v>115885</v>
       </c>
       <c r="E9">
-        <v>57748</v>
+        <v>68029</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54773</v>
+        <v>47856</v>
       </c>
       <c r="H9">
-        <v>4942052</v>
+        <v>5684426</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4004710</v>
+        <v>3510835</v>
       </c>
       <c r="K9">
-        <v>8946762</v>
+        <v>9195261</v>
       </c>
       <c r="L9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O9" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="P9" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="Q9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10">
-        <v>115883</v>
+        <v>119405</v>
       </c>
       <c r="E10">
-        <v>64387</v>
+        <v>82385</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51496</v>
+        <v>37020</v>
       </c>
       <c r="H10">
-        <v>5419149</v>
+        <v>6719874</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3750718</v>
+        <v>2727018</v>
       </c>
       <c r="K10">
-        <v>9169867</v>
+        <v>9446892</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O10" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="P10" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="Q10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>115885</v>
+        <v>119405</v>
       </c>
       <c r="E11">
-        <v>68029</v>
+        <v>88717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47856</v>
+        <v>30688</v>
       </c>
       <c r="H11">
-        <v>5684426</v>
+        <v>7181392</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3510835</v>
+        <v>2265500</v>
       </c>
       <c r="K11">
-        <v>9195261</v>
+        <v>9446892</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N11" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O11" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P11" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="Q11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44834</v>
       </c>
@@ -1609,52 +1658,52 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>119405</v>
+        <v>119586</v>
       </c>
       <c r="E12">
-        <v>82385</v>
+        <v>89918</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>37020</v>
+        <v>29668</v>
       </c>
       <c r="H12">
-        <v>6719874</v>
+        <v>7263624</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2727018</v>
+        <v>2232933</v>
       </c>
       <c r="K12">
-        <v>9446892</v>
+        <v>9496557</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P12" s="2">
         <v>44833</v>
       </c>
       <c r="Q12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44834</v>
       </c>
@@ -1662,376 +1711,382 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13">
-        <v>119405</v>
+        <v>119588</v>
       </c>
       <c r="E13">
-        <v>88717</v>
+        <v>90856</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30688</v>
+        <v>28732</v>
       </c>
       <c r="H13">
-        <v>7181392</v>
+        <v>7327088</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2265500</v>
+        <v>2169769</v>
       </c>
       <c r="K13">
-        <v>9446892</v>
+        <v>9496857</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P13" s="2">
         <v>44833</v>
       </c>
       <c r="Q13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2">
-        <v>44834</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14">
+        <v>119588</v>
+      </c>
+      <c r="E14">
+        <v>119587</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>109</v>
       </c>
-      <c r="D14">
-        <v>119586</v>
-      </c>
-      <c r="E14">
-        <v>89918</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>29668</v>
-      </c>
-      <c r="H14">
-        <v>7263624</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2232933</v>
-      </c>
-      <c r="K14">
-        <v>9496557</v>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O14" t="s">
-        <v>207</v>
-      </c>
-      <c r="P14" s="2">
-        <v>44833</v>
+        <v>192</v>
+      </c>
+      <c r="P14" t="s">
+        <v>200</v>
       </c>
       <c r="Q14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44834</v>
+        <v>44838</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>119588</v>
       </c>
       <c r="E15">
-        <v>90856</v>
+        <v>119587</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>28732</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>7327088</v>
+        <v>9496799</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J15">
-        <v>2169769</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>9496857</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>207</v>
-      </c>
-      <c r="P15" s="2">
-        <v>44833</v>
+        <v>192</v>
+      </c>
+      <c r="P15" t="s">
+        <v>200</v>
       </c>
       <c r="Q15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
-        <v>20</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44839</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16">
+        <v>123828</v>
+      </c>
+      <c r="E16">
+        <v>121302</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2525</v>
+      </c>
+      <c r="H16">
+        <v>9651117</v>
+      </c>
+      <c r="I16">
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <v>226615</v>
+      </c>
+      <c r="K16">
+        <v>9877790</v>
+      </c>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="2">
+        <v>44838</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>17716</v>
+      </c>
+      <c r="E17">
+        <v>5289</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>12427</v>
+      </c>
+      <c r="H17">
+        <v>401324</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>920552</v>
+      </c>
+      <c r="K17">
+        <v>1321876</v>
+      </c>
+      <c r="L17" t="s">
         <v>120</v>
       </c>
-      <c r="I16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s">
-        <v>199</v>
-      </c>
-      <c r="O16" t="s">
-        <v>207</v>
-      </c>
-      <c r="P16" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="2">
+      <c r="M17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="2">
         <v>44838</v>
       </c>
-      <c r="B17" t="s">
+      <c r="Q17" t="s">
+        <v>202</v>
+      </c>
+      <c r="R17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17">
-        <v>119588</v>
-      </c>
-      <c r="E17">
-        <v>119587</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>9496799</v>
-      </c>
-      <c r="I17">
-        <v>58</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>9496857</v>
-      </c>
-      <c r="L17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" t="s">
-        <v>179</v>
-      </c>
-      <c r="N17" t="s">
-        <v>199</v>
-      </c>
-      <c r="O17" t="s">
-        <v>207</v>
-      </c>
-      <c r="P17" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="2">
-        <v>44839</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>123828</v>
       </c>
       <c r="E18">
-        <v>121302</v>
+        <v>123827</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2525</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>9651117</v>
+        <v>9877732</v>
       </c>
       <c r="I18">
         <v>58</v>
       </c>
       <c r="J18">
-        <v>226615</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>9877790</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P18" s="2">
         <v>44838</v>
       </c>
       <c r="Q18" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>17716</v>
       </c>
       <c r="E19">
-        <v>5289</v>
+        <v>17716</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12427</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>401324</v>
+        <v>1321876</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>920552</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1321876</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P19" s="2">
         <v>44838</v>
       </c>
       <c r="Q19" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44840</v>
       </c>
@@ -2039,13 +2094,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>123828</v>
+        <v>17894</v>
       </c>
       <c r="E20">
-        <v>123827</v>
+        <v>17893</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2054,152 +2109,152 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9877732</v>
+        <v>1680461</v>
       </c>
       <c r="I20">
-        <v>58</v>
+        <v>1035</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9877790</v>
+        <v>1681496</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P20" s="2">
         <v>44838</v>
       </c>
       <c r="Q20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>17716</v>
+        <v>21791</v>
       </c>
       <c r="E21">
-        <v>17716</v>
+        <v>21790</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1321876</v>
+        <v>1917408</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1321876</v>
+        <v>1918443</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P21" s="2">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="Q21" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>17894</v>
+        <v>21791</v>
       </c>
       <c r="E22">
-        <v>17893</v>
+        <v>21791</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1680461</v>
+        <v>1918443</v>
       </c>
       <c r="I22">
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1681496</v>
+        <v>1918443</v>
       </c>
       <c r="L22" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P22" s="2">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="Q22" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44841</v>
       </c>
@@ -2207,69 +2262,69 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23">
-        <v>21791</v>
+        <v>25767</v>
       </c>
       <c r="E23">
-        <v>21790</v>
+        <v>21950</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3817</v>
       </c>
       <c r="H23">
-        <v>1917408</v>
+        <v>1929982</v>
       </c>
       <c r="I23">
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>287162</v>
       </c>
       <c r="K23">
-        <v>1918443</v>
+        <v>2217144</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P23" s="2">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="Q23" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>21791</v>
+        <v>29980</v>
       </c>
       <c r="E24">
-        <v>21791</v>
+        <v>29980</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2278,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1918443</v>
+        <v>2560624</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2287,101 +2342,101 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1918443</v>
+        <v>2560624</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P24" s="2">
-        <v>44839</v>
+        <v>44841</v>
       </c>
       <c r="Q24" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44841</v>
+        <v>48862</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>25767</v>
+        <v>38950</v>
       </c>
       <c r="E25">
-        <v>21950</v>
+        <v>38632</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3817</v>
+        <v>318</v>
       </c>
       <c r="H25">
-        <v>1929982</v>
+        <v>3228687</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>287162</v>
+        <v>27263</v>
       </c>
       <c r="K25">
-        <v>2217144</v>
+        <v>3255950</v>
       </c>
       <c r="L25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M25" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P25" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="Q25" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44842</v>
+        <v>44845</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>29980</v>
+        <v>38966</v>
       </c>
       <c r="E26">
-        <v>29980</v>
+        <v>38966</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2390,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2560624</v>
+        <v>3258184</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2399,95 +2454,95 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2560624</v>
+        <v>3258184</v>
       </c>
       <c r="L26" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P26" s="2">
-        <v>44841</v>
+        <v>44843</v>
       </c>
       <c r="Q26" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>48862</v>
+        <v>44847</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>38950</v>
+        <v>38966</v>
       </c>
       <c r="E27">
-        <v>38632</v>
+        <v>38966</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3228687</v>
+        <v>3258184</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>27263</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>3255950</v>
+        <v>3258184</v>
       </c>
       <c r="L27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="N27" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O27" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P27" s="2">
         <v>44843</v>
       </c>
       <c r="Q27" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44845</v>
+        <v>44848</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28">
         <v>38966</v>
@@ -2514,42 +2569,42 @@
         <v>3258184</v>
       </c>
       <c r="L28" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P28" s="2">
         <v>44843</v>
       </c>
       <c r="Q28" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29">
-        <v>38966</v>
+        <v>43211</v>
       </c>
       <c r="E29">
-        <v>38966</v>
+        <v>43211</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2558,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3258184</v>
+        <v>3680975</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2567,101 +2622,101 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3258184</v>
+        <v>3680975</v>
       </c>
       <c r="L29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="P29" s="2">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="Q29" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44848</v>
+        <v>44853</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30">
-        <v>38966</v>
+        <v>73190</v>
       </c>
       <c r="E30">
-        <v>38966</v>
+        <v>73090</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H30">
-        <v>3258184</v>
+        <v>6132925</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>7621</v>
       </c>
       <c r="K30">
-        <v>3258184</v>
+        <v>6140546</v>
       </c>
       <c r="L30" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="P30" s="2">
-        <v>44843</v>
+        <v>44851</v>
       </c>
       <c r="Q30" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44851</v>
+        <v>44853</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31">
-        <v>43211</v>
+        <v>73190</v>
       </c>
       <c r="E31">
-        <v>43211</v>
+        <v>73190</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2670,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3680975</v>
+        <v>6140546</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2679,101 +2734,101 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3680975</v>
+        <v>6140546</v>
       </c>
       <c r="L31" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="N31" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O31" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P31" s="2">
-        <v>44844</v>
+        <v>44851</v>
       </c>
       <c r="Q31" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32">
-        <v>73190</v>
+        <v>78623</v>
       </c>
       <c r="E32">
-        <v>73090</v>
+        <v>75264</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>3359</v>
       </c>
       <c r="H32">
-        <v>6132925</v>
+        <v>6298212</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7621</v>
+        <v>588116</v>
       </c>
       <c r="K32">
-        <v>6140546</v>
+        <v>6886328</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O32" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P32" s="2">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="Q32" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44853</v>
+        <v>44858</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>73190</v>
+        <v>95642</v>
       </c>
       <c r="E33">
-        <v>73190</v>
+        <v>95642</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2782,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6140546</v>
+        <v>8271020.7599999998</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2791,605 +2846,605 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>6140546</v>
+        <v>8271020.7599999998</v>
       </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="N33" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O33" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P33" s="2">
-        <v>44851</v>
+        <v>44856</v>
       </c>
       <c r="Q33" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44854</v>
+        <v>26.000324074074079</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34">
-        <v>78623</v>
+        <v>95713</v>
       </c>
       <c r="E34">
-        <v>75264</v>
+        <v>95713</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3359</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>6298212</v>
+        <v>8290465.7599999998</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>588116</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>6886328</v>
+        <v>8290465.7599999998</v>
       </c>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="N34" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O34" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P34" s="2">
-        <v>44852</v>
+        <v>44856</v>
       </c>
       <c r="Q34" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35">
-        <v>95642</v>
+        <v>109023</v>
       </c>
       <c r="E35">
-        <v>95642</v>
+        <v>104951</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4071</v>
       </c>
       <c r="H35">
-        <v>8271020.76</v>
+        <v>9058803.7599999998</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>289373</v>
       </c>
       <c r="K35">
-        <v>8271020.76</v>
+        <v>9348659.7599999998</v>
       </c>
       <c r="L35" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M35" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N35" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O35" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P35" s="2">
-        <v>44856</v>
+        <v>44859</v>
       </c>
       <c r="Q35" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>44861</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36">
-        <v>95713</v>
+        <v>110174</v>
       </c>
       <c r="E36">
-        <v>95713</v>
+        <v>109025</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="H36">
-        <v>8290465.76</v>
+        <v>9348886.7599999998</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>100606</v>
       </c>
       <c r="K36">
-        <v>8290465.76</v>
+        <v>9449492.7599999998</v>
       </c>
       <c r="L36" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M36" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N36" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O36" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P36" s="2">
-        <v>44856</v>
+        <v>44860</v>
       </c>
       <c r="Q36" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>109023</v>
+        <v>113316</v>
       </c>
       <c r="E37">
-        <v>104951</v>
+        <v>113316</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>4071</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>9058803.76</v>
+        <v>9653641.7599999998</v>
       </c>
       <c r="I37">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>289373</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>9348659.76</v>
+        <v>9653641.7599999998</v>
       </c>
       <c r="L37" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M37" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O37" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P37" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="Q37" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44861</v>
+        <v>44865</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38">
-        <v>110174</v>
+        <v>126415</v>
       </c>
       <c r="E38">
-        <v>109025</v>
+        <v>126415</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>9348886.76</v>
+        <v>10737943.76</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>100606</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>9449492.76</v>
+        <v>10737943.76</v>
       </c>
       <c r="L38" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M38" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N38" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O38" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P38" s="2">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="Q38" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44862</v>
+        <v>44868</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39">
-        <v>113316</v>
+        <v>7893</v>
       </c>
       <c r="E39">
-        <v>113316</v>
+        <v>5755</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2138</v>
       </c>
       <c r="H39">
-        <v>9653641.76</v>
+        <v>424540</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>161280</v>
       </c>
       <c r="K39">
-        <v>9653641.76</v>
+        <v>585820</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N39" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O39" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P39" s="2">
-        <v>44860</v>
+        <v>44867</v>
       </c>
       <c r="Q39" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40">
-        <v>126415</v>
+        <v>11708</v>
       </c>
       <c r="E40">
-        <v>126415</v>
+        <v>7969</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="H40">
-        <v>10737943.76</v>
+        <v>591551</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>251639</v>
       </c>
       <c r="K40">
-        <v>10737943.76</v>
+        <v>843190</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M40" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N40" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O40" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P40" s="2">
-        <v>44863</v>
+        <v>44868</v>
       </c>
       <c r="Q40" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41">
-        <v>7893</v>
+        <v>11709</v>
       </c>
       <c r="E41">
-        <v>5755</v>
+        <v>8677</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2138</v>
+        <v>3032</v>
       </c>
       <c r="H41">
-        <v>424540</v>
+        <v>642028</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>161280</v>
+        <v>201507</v>
       </c>
       <c r="K41">
-        <v>585820</v>
+        <v>843535</v>
       </c>
       <c r="L41" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s">
+        <v>174</v>
+      </c>
+      <c r="N41" t="s">
         <v>186</v>
       </c>
-      <c r="N41" t="s">
-        <v>200</v>
-      </c>
       <c r="O41" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P41" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="Q41" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42">
-        <v>11708</v>
+        <v>20950</v>
       </c>
       <c r="E42">
-        <v>7969</v>
+        <v>20950</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3739</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>591551</v>
+        <v>1530165</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>251639</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>843190</v>
+        <v>1530165</v>
       </c>
       <c r="L42" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s">
+        <v>175</v>
+      </c>
+      <c r="N42" t="s">
         <v>186</v>
       </c>
-      <c r="N42" t="s">
-        <v>200</v>
-      </c>
       <c r="O42" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P42" s="2">
-        <v>44868</v>
+        <v>44870</v>
       </c>
       <c r="Q42" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43">
-        <v>11709</v>
+        <v>20950</v>
       </c>
       <c r="E43">
-        <v>8677</v>
+        <v>20950</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3032</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>642028</v>
+        <v>1530165</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>201507</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>843535</v>
+        <v>1530165</v>
       </c>
       <c r="L43" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O43" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P43" s="2">
-        <v>44868</v>
+        <v>44870</v>
       </c>
       <c r="Q43" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44872</v>
+        <v>44875</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44">
-        <v>20950</v>
+        <v>34802</v>
       </c>
       <c r="E44">
-        <v>20950</v>
+        <v>34802</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3398,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1530165</v>
+        <v>2899358</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3407,45 +3462,45 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1530165</v>
+        <v>2899358</v>
       </c>
       <c r="L44" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N44" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O44" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P44" s="2">
-        <v>44870</v>
+        <v>44873</v>
       </c>
       <c r="Q44" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D45">
-        <v>20950</v>
+        <v>55233</v>
       </c>
       <c r="E45">
-        <v>20950</v>
+        <v>55233</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3454,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1530165</v>
+        <v>4375323</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3463,45 +3518,45 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1530165</v>
+        <v>4375323</v>
       </c>
       <c r="L45" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N45" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O45" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P45" s="2">
-        <v>44870</v>
+        <v>44878</v>
       </c>
       <c r="Q45" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44875</v>
+        <v>44880</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46">
-        <v>34802</v>
+        <v>58120</v>
       </c>
       <c r="E46">
-        <v>34802</v>
+        <v>58120</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3510,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2899358</v>
+        <v>4517115</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3519,45 +3574,45 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2899358</v>
+        <v>4517115</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M46" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N46" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O46" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P46" s="2">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="Q46" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47">
-        <v>55233</v>
+        <v>58120</v>
       </c>
       <c r="E47">
-        <v>55233</v>
+        <v>58120</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3566,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>4375323</v>
+        <v>4517115</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3575,45 +3630,45 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4375323</v>
+        <v>4517115</v>
       </c>
       <c r="L47" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M47" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N47" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O47" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P47" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="Q47" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48">
-        <v>58120</v>
+        <v>58131</v>
       </c>
       <c r="E48">
-        <v>58120</v>
+        <v>58131</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3622,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>4517115</v>
+        <v>4641796</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3631,45 +3686,45 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>4517115</v>
+        <v>4641796</v>
       </c>
       <c r="L48" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M48" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N48" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O48" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P48" s="2">
         <v>44879</v>
       </c>
       <c r="Q48" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49">
-        <v>58120</v>
+        <v>60243</v>
       </c>
       <c r="E49">
-        <v>58120</v>
+        <v>60243</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3678,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>4517115</v>
+        <v>4848218</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3687,45 +3742,45 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>4517115</v>
+        <v>4848218</v>
       </c>
       <c r="L49" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M49" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N49" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O49" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P49" s="2">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="Q49" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44881</v>
+        <v>44886</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50">
-        <v>58131</v>
+        <v>78219</v>
       </c>
       <c r="E50">
-        <v>58131</v>
+        <v>78219</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3734,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4641796</v>
+        <v>6075424</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3743,45 +3798,45 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>4641796</v>
+        <v>6075424</v>
       </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N50" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O50" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="P50" s="2">
-        <v>44879</v>
+        <v>44885</v>
       </c>
       <c r="Q50" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R50" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51">
-        <v>60243</v>
+        <v>79918</v>
       </c>
       <c r="E51">
-        <v>60243</v>
+        <v>79918</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3790,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>4848218</v>
+        <v>6580644</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3799,45 +3854,45 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>4848218</v>
+        <v>6580644</v>
       </c>
       <c r="L51" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M51" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="N51" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O51" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P51" s="2">
-        <v>44880</v>
+        <v>44885</v>
       </c>
       <c r="Q51" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52">
-        <v>78219</v>
+        <v>82671</v>
       </c>
       <c r="E52">
-        <v>78219</v>
+        <v>82671</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3846,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>6075424</v>
+        <v>6725214</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3855,45 +3910,45 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>6075424</v>
+        <v>6725214</v>
       </c>
       <c r="L52" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="N52" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O52" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P52" s="2">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="Q52" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53">
-        <v>79918</v>
+        <v>82671</v>
       </c>
       <c r="E53">
-        <v>79918</v>
+        <v>82671</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3902,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>6580644</v>
+        <v>6725214</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3911,39 +3966,39 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>6580644</v>
+        <v>6725214</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N53" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O53" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P53" s="2">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="Q53" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54">
         <v>82671</v>
@@ -3970,36 +4025,36 @@
         <v>6725214</v>
       </c>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N54" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O54" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P54" s="2">
         <v>44886</v>
       </c>
       <c r="Q54" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55">
         <v>82671</v>
@@ -4026,42 +4081,42 @@
         <v>6725214</v>
       </c>
       <c r="L55" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N55" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O55" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P55" s="2">
         <v>44886</v>
       </c>
       <c r="Q55" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56">
-        <v>82671</v>
+        <v>82707</v>
       </c>
       <c r="E56">
-        <v>82671</v>
+        <v>82707</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4070,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>6725214</v>
+        <v>6736637.5</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4079,213 +4134,213 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>6725214</v>
+        <v>6736637.5</v>
       </c>
       <c r="L56" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M56" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N56" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O56" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P56" s="2">
         <v>44886</v>
       </c>
       <c r="Q56" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>96845</v>
+      </c>
+      <c r="E57">
+        <v>86093</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>10752</v>
+      </c>
+      <c r="H57">
+        <v>6926194.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>575400</v>
+      </c>
+      <c r="K57">
+        <v>7501594.5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>142</v>
+      </c>
+      <c r="M57" t="s">
+        <v>176</v>
+      </c>
+      <c r="N57" t="s">
+        <v>187</v>
+      </c>
+      <c r="O57" t="s">
+        <v>195</v>
+      </c>
+      <c r="P57" s="2">
+        <v>44891</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>202</v>
+      </c>
+      <c r="R57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B58" t="s">
         <v>75</v>
       </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57">
-        <v>82671</v>
-      </c>
-      <c r="E57">
-        <v>82671</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>6725214</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>6725214</v>
-      </c>
-      <c r="L57" t="s">
-        <v>154</v>
-      </c>
-      <c r="M57" t="s">
-        <v>189</v>
-      </c>
-      <c r="N57" t="s">
-        <v>201</v>
-      </c>
-      <c r="O57" t="s">
-        <v>210</v>
-      </c>
-      <c r="P57" s="2">
-        <v>44886</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>219</v>
-      </c>
-      <c r="R57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="2">
-        <v>44890</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58">
+        <v>104299</v>
+      </c>
+      <c r="E58">
+        <v>104299</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>8024630.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>8024630.5</v>
+      </c>
+      <c r="L58" t="s">
+        <v>143</v>
+      </c>
+      <c r="M58" t="s">
+        <v>176</v>
+      </c>
+      <c r="N58" t="s">
+        <v>187</v>
+      </c>
+      <c r="O58" t="s">
+        <v>195</v>
+      </c>
+      <c r="P58" s="2">
+        <v>44893</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>202</v>
+      </c>
+      <c r="R58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B59" t="s">
         <v>76</v>
       </c>
-      <c r="C58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58">
-        <v>82707</v>
-      </c>
-      <c r="E58">
-        <v>82707</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>6736637.5</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>6736637.5</v>
-      </c>
-      <c r="L58" t="s">
-        <v>154</v>
-      </c>
-      <c r="M58" t="s">
-        <v>189</v>
-      </c>
-      <c r="N58" t="s">
-        <v>201</v>
-      </c>
-      <c r="O58" t="s">
-        <v>210</v>
-      </c>
-      <c r="P58" s="2">
-        <v>44886</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>219</v>
-      </c>
-      <c r="R58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="2">
-        <v>44893</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D59">
-        <v>96845</v>
+        <v>107078</v>
       </c>
       <c r="E59">
-        <v>86093</v>
+        <v>107078</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>10752</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>6926194.5</v>
+        <v>8156952.5</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>575400</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>7501594.5</v>
+        <v>8156952.5</v>
       </c>
       <c r="L59" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M59" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N59" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O59" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P59" s="2">
-        <v>44891</v>
+        <v>44894</v>
       </c>
       <c r="Q59" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R59" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D60">
-        <v>104299</v>
+        <v>107094</v>
       </c>
       <c r="E60">
-        <v>104299</v>
+        <v>107094</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4294,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>8024630.5</v>
+        <v>8164036</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4303,45 +4358,45 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>8024630.5</v>
+        <v>8164036</v>
       </c>
       <c r="L60" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M60" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="N60" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O60" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P60" s="2">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="Q60" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B61" t="s">
         <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61">
-        <v>107078</v>
+        <v>107094</v>
       </c>
       <c r="E61">
-        <v>107078</v>
+        <v>107094</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4350,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>8156952.5</v>
+        <v>8164036</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4359,157 +4414,157 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>8156952.5</v>
+        <v>8164036</v>
       </c>
       <c r="L61" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M61" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="N61" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O61" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P61" s="2">
         <v>44894</v>
       </c>
       <c r="Q61" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44895</v>
+        <v>44901</v>
       </c>
       <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62">
+        <v>111763</v>
+      </c>
+      <c r="E62">
+        <v>111763</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>8514390.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>8514390.5</v>
+      </c>
+      <c r="L62" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62" t="s">
+        <v>178</v>
+      </c>
+      <c r="N62" t="s">
+        <v>188</v>
+      </c>
+      <c r="O62" t="s">
+        <v>195</v>
+      </c>
+      <c r="P62" s="2">
+        <v>44898</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>202</v>
+      </c>
+      <c r="R62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B63" t="s">
         <v>79</v>
       </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62">
-        <v>107094</v>
-      </c>
-      <c r="E62">
-        <v>107094</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>8164036</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>8164036</v>
-      </c>
-      <c r="L62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M62" t="s">
-        <v>190</v>
-      </c>
-      <c r="N62" t="s">
-        <v>201</v>
-      </c>
-      <c r="O62" t="s">
-        <v>210</v>
-      </c>
-      <c r="P62" s="2">
-        <v>44894</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>219</v>
-      </c>
-      <c r="R62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="2">
-        <v>44896</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63">
+        <v>14637</v>
+      </c>
+      <c r="E63">
+        <v>14637</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1381515</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1381515</v>
+      </c>
+      <c r="L63" t="s">
+        <v>145</v>
+      </c>
+      <c r="M63" t="s">
+        <v>178</v>
+      </c>
+      <c r="N63" t="s">
+        <v>188</v>
+      </c>
+      <c r="O63" t="s">
+        <v>195</v>
+      </c>
+      <c r="P63" s="2">
+        <v>44898</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>202</v>
+      </c>
+      <c r="R63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B64" t="s">
         <v>80</v>
       </c>
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63">
-        <v>107094</v>
-      </c>
-      <c r="E63">
-        <v>107094</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>8164036</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>8164036</v>
-      </c>
-      <c r="L63" t="s">
-        <v>157</v>
-      </c>
-      <c r="M63" t="s">
-        <v>190</v>
-      </c>
-      <c r="N63" t="s">
-        <v>201</v>
-      </c>
-      <c r="O63" t="s">
-        <v>210</v>
-      </c>
-      <c r="P63" s="2">
-        <v>44894</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>219</v>
-      </c>
-      <c r="R63" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="2">
-        <v>44901</v>
-      </c>
-      <c r="B64" t="s">
-        <v>56</v>
-      </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64">
-        <v>111763</v>
+        <v>14637</v>
       </c>
       <c r="E64">
-        <v>111763</v>
+        <v>14637</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4518,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>8514390.5</v>
+        <v>1381515</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4527,48 +4582,48 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>8514390.5</v>
+        <v>1381515</v>
       </c>
       <c r="L64" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M64" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N64" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O64" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P64" s="2">
         <v>44898</v>
       </c>
       <c r="Q64" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R64" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="S64" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>44901</v>
+        <v>44904</v>
       </c>
       <c r="B65" t="s">
         <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65">
-        <v>14637</v>
+        <v>27850</v>
       </c>
       <c r="E65">
-        <v>14637</v>
+        <v>27850</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4577,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1381515</v>
+        <v>2051966</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4586,45 +4641,45 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1381515</v>
+        <v>2051966</v>
       </c>
       <c r="L65" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M65" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N65" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O65" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P65" s="2">
-        <v>44898</v>
+        <v>44902</v>
       </c>
       <c r="Q65" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R65" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D66">
-        <v>14637</v>
+        <v>27850</v>
       </c>
       <c r="E66">
-        <v>14637</v>
+        <v>27850</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4633,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1381515</v>
+        <v>2051966</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4642,39 +4697,39 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1381515</v>
+        <v>2051966</v>
       </c>
       <c r="L66" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M66" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N66" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O66" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P66" s="2">
-        <v>44898</v>
+        <v>44902</v>
       </c>
       <c r="Q66" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R66" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D67">
         <v>27850</v>
@@ -4701,42 +4756,42 @@
         <v>2051966</v>
       </c>
       <c r="L67" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M67" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N67" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O67" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P67" s="2">
         <v>44902</v>
       </c>
       <c r="Q67" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68">
-        <v>27850</v>
+        <v>27886</v>
       </c>
       <c r="E68">
-        <v>27850</v>
+        <v>27886</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4745,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2051966</v>
+        <v>2063301.5</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4754,45 +4809,45 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2051966</v>
+        <v>2063301.5</v>
       </c>
       <c r="L68" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M68" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N68" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O68" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P68" s="2">
         <v>44902</v>
       </c>
       <c r="Q68" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D69">
-        <v>27850</v>
+        <v>27887</v>
       </c>
       <c r="E69">
-        <v>27850</v>
+        <v>27887</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4801,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2051966</v>
+        <v>2063600.5</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4810,45 +4865,45 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2051966</v>
+        <v>2063600.5</v>
       </c>
       <c r="L69" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M69" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N69" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O69" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P69" s="2">
         <v>44902</v>
       </c>
       <c r="Q69" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D70">
-        <v>27886</v>
+        <v>27893</v>
       </c>
       <c r="E70">
-        <v>27886</v>
+        <v>27893</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4857,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>2063301.5</v>
+        <v>2151908.5</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4866,157 +4921,157 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2063301.5</v>
+        <v>2151908.5</v>
       </c>
       <c r="L70" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M70" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="N70" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O70" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="P70" s="2">
         <v>44902</v>
       </c>
       <c r="Q70" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71">
+        <v>63472</v>
+      </c>
+      <c r="E71">
+        <v>63472</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>4180152.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>4180152.5</v>
+      </c>
+      <c r="L71" t="s">
+        <v>147</v>
+      </c>
+      <c r="M71" t="s">
+        <v>179</v>
+      </c>
+      <c r="N71" t="s">
+        <v>188</v>
+      </c>
+      <c r="O71" t="s">
+        <v>196</v>
+      </c>
+      <c r="P71" s="2">
+        <v>44913</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>202</v>
+      </c>
+      <c r="R71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B72" t="s">
         <v>86</v>
       </c>
-      <c r="C71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71">
-        <v>27887</v>
-      </c>
-      <c r="E71">
-        <v>27887</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>2063600.5</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2063600.5</v>
-      </c>
-      <c r="L71" t="s">
-        <v>159</v>
-      </c>
-      <c r="M71" t="s">
-        <v>192</v>
-      </c>
-      <c r="N71" t="s">
-        <v>202</v>
-      </c>
-      <c r="O71" t="s">
-        <v>210</v>
-      </c>
-      <c r="P71" s="2">
-        <v>44902</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>219</v>
-      </c>
-      <c r="R71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="2">
-        <v>44911</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72">
+        <v>68513</v>
+      </c>
+      <c r="E72">
+        <v>68513</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>4941418.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>4941418.5</v>
+      </c>
+      <c r="L72" t="s">
+        <v>148</v>
+      </c>
+      <c r="M72" t="s">
+        <v>180</v>
+      </c>
+      <c r="N72" t="s">
+        <v>188</v>
+      </c>
+      <c r="O72" t="s">
+        <v>196</v>
+      </c>
+      <c r="P72" s="2">
+        <v>44914</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>202</v>
+      </c>
+      <c r="R72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B73" t="s">
         <v>87</v>
       </c>
-      <c r="C72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72">
-        <v>27893</v>
-      </c>
-      <c r="E72">
-        <v>27893</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>2151908.5</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>2151908.5</v>
-      </c>
-      <c r="L72" t="s">
-        <v>159</v>
-      </c>
-      <c r="M72" t="s">
-        <v>192</v>
-      </c>
-      <c r="N72" t="s">
-        <v>202</v>
-      </c>
-      <c r="O72" t="s">
-        <v>211</v>
-      </c>
-      <c r="P72" s="2">
-        <v>44902</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>219</v>
-      </c>
-      <c r="R72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="2">
-        <v>44914</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D73">
-        <v>63472</v>
+        <v>71893</v>
       </c>
       <c r="E73">
-        <v>63472</v>
+        <v>71893</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5025,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>4180152.5</v>
+        <v>5098424.5</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5034,45 +5089,45 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>4180152.5</v>
+        <v>5098424.5</v>
       </c>
       <c r="L73" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N73" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O73" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="P73" s="2">
-        <v>44913</v>
+        <v>44915</v>
       </c>
       <c r="Q73" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R73" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D74">
-        <v>68513</v>
+        <v>75955</v>
       </c>
       <c r="E74">
-        <v>68513</v>
+        <v>75955</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5081,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>4941418.5</v>
+        <v>5299840.5</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5090,45 +5145,45 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>4941418.5</v>
+        <v>5299840.5</v>
       </c>
       <c r="L74" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M74" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N74" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O74" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="P74" s="2">
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="Q74" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R74" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>44916</v>
+        <v>44918</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D75">
-        <v>71893</v>
+        <v>79932</v>
       </c>
       <c r="E75">
-        <v>71893</v>
+        <v>79932</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5137,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>5098424.5</v>
+        <v>5479766.5</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5146,45 +5201,45 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>5098424.5</v>
+        <v>5479766.5</v>
       </c>
       <c r="L75" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M75" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N75" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O75" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="P75" s="2">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="Q75" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R75" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>44917</v>
+        <v>44921</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D76">
-        <v>75955</v>
+        <v>90921</v>
       </c>
       <c r="E76">
-        <v>75955</v>
+        <v>90921</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5193,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>5299840.5</v>
+        <v>6003559.5</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5202,101 +5257,101 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>5299840.5</v>
+        <v>6003559.5</v>
       </c>
       <c r="L76" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M76" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N76" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O76" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="P76" s="2">
-        <v>44916</v>
+        <v>44920</v>
       </c>
       <c r="Q76" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B77" t="s">
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D77">
-        <v>79932</v>
+        <v>94721</v>
       </c>
       <c r="E77">
-        <v>79932</v>
+        <v>94667</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H77">
-        <v>5479766.5</v>
+        <v>6226209.1699999999</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2650.1</v>
       </c>
       <c r="K77">
-        <v>5479766.5</v>
+        <v>6228859.2699999996</v>
       </c>
       <c r="L77" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M77" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N77" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O77" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P77" s="2">
-        <v>44917</v>
+        <v>44921</v>
       </c>
       <c r="Q77" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R77" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D78">
-        <v>90921</v>
+        <v>94721</v>
       </c>
       <c r="E78">
-        <v>90921</v>
+        <v>94721</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5305,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>6003559.5</v>
+        <v>6228859.2699999996</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5314,269 +5369,269 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>6003559.5</v>
+        <v>6228859.2699999996</v>
       </c>
       <c r="L78" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M78" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N78" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O78" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P78" s="2">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="Q78" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D79">
         <v>94721</v>
       </c>
       <c r="E79">
-        <v>94667</v>
+        <v>94721</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>6226209.17</v>
+        <v>6228859.2699999996</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>2650.1</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>6228859.27</v>
+        <v>6228859.2699999996</v>
       </c>
       <c r="L79" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M79" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N79" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O79" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P79" s="2">
         <v>44921</v>
       </c>
       <c r="Q79" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R79" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D80">
-        <v>94721</v>
+        <v>99529</v>
       </c>
       <c r="E80">
-        <v>94721</v>
+        <v>97344</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="H80">
-        <v>6228859.27</v>
+        <v>6361519.2699999996</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>111881</v>
       </c>
       <c r="K80">
-        <v>6228859.27</v>
+        <v>6473400.2699999996</v>
       </c>
       <c r="L80" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M80" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N80" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O80" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P80" s="2">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="Q80" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R80" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D81">
-        <v>94721</v>
+        <v>99529</v>
       </c>
       <c r="E81">
-        <v>94721</v>
+        <v>99528</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>6228859.27</v>
+        <v>6473374.2699999996</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>6228859.27</v>
+        <v>6473400.2699999996</v>
       </c>
       <c r="L81" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M81" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N81" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O81" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P81" s="2">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="Q81" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R81" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D82">
-        <v>99529</v>
+        <v>3505</v>
       </c>
       <c r="E82">
-        <v>97344</v>
+        <v>3505</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>6361519.27</v>
+        <v>234468</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>111881</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>6473400.27</v>
+        <v>234468</v>
       </c>
       <c r="L82" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="M82" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N82" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O82" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P82" s="2">
-        <v>44923</v>
+        <v>44927</v>
       </c>
       <c r="Q82" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R82" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>44924</v>
+        <v>44929</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D83">
-        <v>99529</v>
+        <v>109102</v>
       </c>
       <c r="E83">
-        <v>99528</v>
+        <v>109101</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -5585,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6473374.27</v>
+        <v>7099635.2699999996</v>
       </c>
       <c r="I83">
         <v>26</v>
@@ -5594,151 +5649,151 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>6473400.27</v>
+        <v>7099661.2699999996</v>
       </c>
       <c r="L83" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N83" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O83" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P83" s="2">
-        <v>44923</v>
+        <v>44928</v>
       </c>
       <c r="Q83" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R83" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84">
+        <v>6781</v>
+      </c>
+      <c r="E84">
+        <v>6781</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>453927</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>453927</v>
+      </c>
+      <c r="L84" t="s">
+        <v>156</v>
+      </c>
+      <c r="M84" t="s">
+        <v>181</v>
+      </c>
+      <c r="N84" t="s">
+        <v>188</v>
+      </c>
+      <c r="O84" t="s">
+        <v>197</v>
+      </c>
+      <c r="P84" s="2">
         <v>44928</v>
       </c>
-      <c r="B84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84">
-        <v>3505</v>
-      </c>
-      <c r="E84">
-        <v>3505</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>234468</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>234468</v>
-      </c>
-      <c r="L84" t="s">
-        <v>168</v>
-      </c>
-      <c r="M84" t="s">
-        <v>194</v>
-      </c>
-      <c r="N84" t="s">
-        <v>202</v>
-      </c>
-      <c r="O84" t="s">
-        <v>212</v>
-      </c>
-      <c r="P84" s="2">
-        <v>44927</v>
-      </c>
       <c r="Q84" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R84" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D85">
-        <v>109102</v>
+        <v>109222</v>
       </c>
       <c r="E85">
-        <v>109101</v>
+        <v>109222</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7099635.27</v>
+        <v>7135846.5999999996</v>
       </c>
       <c r="I85">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>7099661.27</v>
+        <v>7135846.5999999996</v>
       </c>
       <c r="L85" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M85" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="N85" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O85" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P85" s="2">
         <v>44928</v>
       </c>
       <c r="Q85" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D86">
         <v>6781</v>
@@ -5765,154 +5820,154 @@
         <v>453927</v>
       </c>
       <c r="L86" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M86" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="N86" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O86" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P86" s="2">
         <v>44928</v>
       </c>
       <c r="Q86" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R86" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87">
+        <v>109240</v>
+      </c>
+      <c r="E87">
+        <v>109240</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>12090673.109999999</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>12090673.109999999</v>
+      </c>
+      <c r="L87" t="s">
+        <v>157</v>
+      </c>
+      <c r="M87" t="s">
+        <v>182</v>
+      </c>
+      <c r="N87" t="s">
+        <v>189</v>
+      </c>
+      <c r="O87" t="s">
+        <v>197</v>
+      </c>
+      <c r="P87" s="2">
         <v>44930</v>
       </c>
-      <c r="B87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87">
-        <v>109222</v>
-      </c>
-      <c r="E87">
-        <v>109222</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>7135846.6</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>7135846.6</v>
-      </c>
-      <c r="L87" t="s">
-        <v>169</v>
-      </c>
-      <c r="M87" t="s">
-        <v>195</v>
-      </c>
-      <c r="N87" t="s">
-        <v>202</v>
-      </c>
-      <c r="O87" t="s">
-        <v>212</v>
-      </c>
-      <c r="P87" s="2">
-        <v>44928</v>
-      </c>
       <c r="Q87" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R87" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88">
+        <v>14923</v>
+      </c>
+      <c r="E88">
+        <v>14923</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1419092</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1419092</v>
+      </c>
+      <c r="L88" t="s">
+        <v>157</v>
+      </c>
+      <c r="M88" t="s">
+        <v>182</v>
+      </c>
+      <c r="N88" t="s">
+        <v>189</v>
+      </c>
+      <c r="O88" t="s">
+        <v>197</v>
+      </c>
+      <c r="P88" s="2">
         <v>44930</v>
       </c>
-      <c r="B88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88">
-        <v>6781</v>
-      </c>
-      <c r="E88">
-        <v>6781</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>453927</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>453927</v>
-      </c>
-      <c r="L88" t="s">
-        <v>169</v>
-      </c>
-      <c r="M88" t="s">
-        <v>195</v>
-      </c>
-      <c r="N88" t="s">
-        <v>202</v>
-      </c>
-      <c r="O88" t="s">
-        <v>212</v>
-      </c>
-      <c r="P88" s="2">
-        <v>44928</v>
-      </c>
       <c r="Q88" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R88" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D89">
-        <v>109240</v>
+        <v>18332</v>
       </c>
       <c r="E89">
-        <v>109240</v>
+        <v>18332</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5921,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>12090673.11</v>
+        <v>1602619</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5930,192 +5985,192 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>12090673.11</v>
+        <v>1602619</v>
       </c>
       <c r="L89" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M89" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="N89" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O89" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P89" s="2">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="Q89" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90">
+        <v>38104</v>
+      </c>
+      <c r="E90">
+        <v>38104</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>2666164</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2666164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91">
+        <v>41278</v>
+      </c>
+      <c r="E91">
+        <v>41278</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>2823444</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2823444</v>
+      </c>
+      <c r="L91" t="s">
+        <v>159</v>
+      </c>
+      <c r="M91" t="s">
+        <v>182</v>
+      </c>
+      <c r="N91" t="s">
+        <v>189</v>
+      </c>
+      <c r="O91" t="s">
+        <v>198</v>
+      </c>
+      <c r="P91" s="2">
+        <v>44938</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>202</v>
+      </c>
+      <c r="R91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C90" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90">
-        <v>14923</v>
-      </c>
-      <c r="E90">
-        <v>14923</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1419092</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>1419092</v>
-      </c>
-      <c r="L90" t="s">
-        <v>170</v>
-      </c>
-      <c r="M90" t="s">
-        <v>195</v>
-      </c>
-      <c r="N90" t="s">
-        <v>203</v>
-      </c>
-      <c r="O90" t="s">
-        <v>212</v>
-      </c>
-      <c r="P90" s="2">
-        <v>44930</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>219</v>
-      </c>
-      <c r="R90" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C92" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92">
+        <v>80941</v>
+      </c>
+      <c r="E92">
+        <v>80941</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>5619116.3099999996</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>5619116.3099999996</v>
+      </c>
+      <c r="L92" t="s">
+        <v>160</v>
+      </c>
+      <c r="M92" t="s">
+        <v>183</v>
+      </c>
+      <c r="N92" t="s">
+        <v>189</v>
+      </c>
+      <c r="O92" t="s">
+        <v>198</v>
+      </c>
+      <c r="P92" s="2">
+        <v>44948</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>202</v>
+      </c>
+      <c r="R92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C91" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91">
-        <v>18332</v>
-      </c>
-      <c r="E91">
-        <v>18332</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>1602619</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>1602619</v>
-      </c>
-      <c r="L91" t="s">
-        <v>171</v>
-      </c>
-      <c r="M91" t="s">
-        <v>195</v>
-      </c>
-      <c r="N91" t="s">
-        <v>203</v>
-      </c>
-      <c r="O91" t="s">
-        <v>212</v>
-      </c>
-      <c r="P91" s="2">
-        <v>44931</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>219</v>
-      </c>
-      <c r="R91" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="A92" s="2">
-        <v>44938</v>
-      </c>
-      <c r="B92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92">
-        <v>38104</v>
-      </c>
-      <c r="E92">
-        <v>38104</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>2666164</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>2666164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="A93" s="2">
-        <v>44942</v>
-      </c>
-      <c r="B93" t="s">
-        <v>89</v>
-      </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D93">
-        <v>41278</v>
+        <v>84087</v>
       </c>
       <c r="E93">
-        <v>41278</v>
+        <v>84087</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6124,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>2823444</v>
+        <v>5780172.3099999996</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6133,45 +6188,45 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2823444</v>
+        <v>5780172.3099999996</v>
       </c>
       <c r="L93" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M93" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="N93" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O93" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="P93" s="2">
-        <v>44938</v>
+        <v>44949</v>
       </c>
       <c r="Q93" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R93" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D94">
-        <v>80941</v>
+        <v>90600</v>
       </c>
       <c r="E94">
-        <v>80941</v>
+        <v>90600</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6180,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>5619116.31</v>
+        <v>6191836.3099999996</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6189,98 +6244,98 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>5619116.31</v>
+        <v>6191836.3099999996</v>
       </c>
       <c r="L94" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M94" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="N94" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O94" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="P94" s="2">
-        <v>44948</v>
+        <v>44951</v>
       </c>
       <c r="Q94" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R94" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>44950</v>
+        <v>44956</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D95">
-        <v>84087</v>
+        <v>96.129000000000005</v>
       </c>
       <c r="E95">
-        <v>84087</v>
+        <v>90600</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>5529</v>
       </c>
       <c r="H95">
-        <v>5780172.31</v>
+        <v>6191836.3099999996</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>296798</v>
       </c>
       <c r="K95">
-        <v>5780172.31</v>
+        <v>6488634.3099999996</v>
       </c>
       <c r="L95" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M95" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="N95" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O95" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="P95" s="2">
-        <v>44949</v>
+        <v>44953</v>
       </c>
       <c r="Q95" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="R95" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96" s="2">
-        <v>44952</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D96">
-        <v>90600</v>
+        <v>96133</v>
       </c>
       <c r="E96">
         <v>90600</v>
@@ -6289,75 +6344,19 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>6191836.31</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>6191836.31</v>
-      </c>
-      <c r="L96" t="s">
-        <v>175</v>
-      </c>
-      <c r="M96" t="s">
-        <v>197</v>
-      </c>
-      <c r="N96" t="s">
-        <v>203</v>
-      </c>
-      <c r="O96" t="s">
-        <v>214</v>
-      </c>
-      <c r="P96" s="2">
-        <v>44951</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>219</v>
-      </c>
-      <c r="R96" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97">
-        <v>90600</v>
-      </c>
-      <c r="E97">
-        <v>90600</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
-        <v>121</v>
-      </c>
-      <c r="I97" t="s">
-        <v>124</v>
-      </c>
-      <c r="J97" t="s">
-        <v>124</v>
-      </c>
-      <c r="K97" t="s">
-        <v>121</v>
+        <v>5533</v>
+      </c>
+      <c r="H96" t="s">
+        <v>110</v>
+      </c>
+      <c r="I96" t="s">
+        <v>112</v>
+      </c>
+      <c r="J96" t="s">
+        <v>113</v>
+      </c>
+      <c r="K96" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Acompanhamento SIF GRU.xlsx
+++ b/Acompanhamento SIF GRU.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6af21f1686353cb4/Área de Trabalho/GUILHERME/PROJETOS PYTHON/Auto_Relatorio/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1379902CB41FCF5FB5644010697652334481F550" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EB760A-8679-40A7-BF30-84A226E9A8FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="240">
   <si>
     <t>Data</t>
   </si>
@@ -79,12 +73,36 @@
     <t>Unnamed: 18</t>
   </si>
   <si>
+    <t>Rotativo</t>
+  </si>
+  <si>
+    <t>MensalistaPF</t>
+  </si>
+  <si>
+    <t>MensalistaPJ</t>
+  </si>
+  <si>
+    <t>Selos</t>
+  </si>
+  <si>
     <t>03/out</t>
   </si>
   <si>
     <t>30/01/2023</t>
   </si>
   <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>06/02/2023</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>08/02/2023</t>
+  </si>
+  <si>
     <t>12:36:00</t>
   </si>
   <si>
@@ -340,6 +358,30 @@
     <t>18:41</t>
   </si>
   <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>09:34</t>
+  </si>
+  <si>
+    <t>08:47</t>
+  </si>
+  <si>
+    <t>15:01</t>
+  </si>
+  <si>
+    <t>15:09</t>
+  </si>
+  <si>
+    <t>09:51</t>
+  </si>
+  <si>
+    <t>09:53</t>
+  </si>
+  <si>
     <t>Pedro</t>
   </si>
   <si>
@@ -355,21 +397,63 @@
     <t>R$ 6.191.836,31</t>
   </si>
   <si>
+    <t>R$ 1.751.705,00</t>
+  </si>
+  <si>
+    <t>R$ 1.789.445,00</t>
+  </si>
+  <si>
+    <t>R$ 2.050.704,33</t>
+  </si>
+  <si>
+    <t>R$ 2.058.081,33</t>
+  </si>
+  <si>
+    <t>R$ 2.151.509,33</t>
+  </si>
+  <si>
+    <t>R$ 2.152.712,33</t>
+  </si>
+  <si>
     <t>R$ 58,00</t>
   </si>
   <si>
     <t>R$ 0,00</t>
   </si>
   <si>
+    <t>R$ 345,00</t>
+  </si>
+  <si>
+    <t>R$ 61,00</t>
+  </si>
+  <si>
     <t>R$ 331.704,00</t>
   </si>
   <si>
+    <t>R$ 306.031,33</t>
+  </si>
+  <si>
+    <t>R$ 268.636,33</t>
+  </si>
+  <si>
+    <t>R$ 7.377,00</t>
+  </si>
+  <si>
+    <t>R$ 344.602,00</t>
+  </si>
+  <si>
+    <t>R$ 343.460,00</t>
+  </si>
+  <si>
     <t>R$ 9.496.857,00</t>
   </si>
   <si>
     <t>R$ 6.523.540,31</t>
   </si>
   <si>
+    <t>R$ 2.496.172,33</t>
+  </si>
+  <si>
     <t>2022-09-13 14:51:41.000</t>
   </si>
   <si>
@@ -623,6 +707,9 @@
   </si>
   <si>
     <t>29/09/2022</t>
+  </si>
+  <si>
+    <t>05/02/2023</t>
   </si>
   <si>
     <t>--</t>
@@ -652,11 +739,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,19 +807,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,27 +885,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,24 +919,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1051,17 +1094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,16 +1159,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>44830</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>54811</v>
@@ -1155,33 +1207,33 @@
         <v>4729017</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P2" s="2">
         <v>44829</v>
       </c>
       <c r="Q2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>44831</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>54811</v>
@@ -1208,33 +1260,33 @@
         <v>4729017</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O3" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P3" s="2">
         <v>44830</v>
       </c>
       <c r="Q3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>44831</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>54811</v>
@@ -1261,33 +1313,33 @@
         <v>4729017</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P4" s="2">
         <v>44830</v>
       </c>
       <c r="Q4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>44832</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>112516</v>
@@ -1314,33 +1366,33 @@
         <v>8877740</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N5" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P5" s="2">
         <v>44831</v>
       </c>
       <c r="Q5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>44832</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>112521</v>
@@ -1367,33 +1419,33 @@
         <v>8946762</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O6" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="P6" s="2">
         <v>44831</v>
       </c>
       <c r="Q6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>44832</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>112521</v>
@@ -1420,33 +1472,33 @@
         <v>8946762</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="P7" s="2">
         <v>44831</v>
       </c>
       <c r="Q7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>44833</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>115883</v>
@@ -1473,33 +1525,33 @@
         <v>9169867</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O8" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="P8" s="2">
         <v>44832</v>
       </c>
       <c r="Q8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>44833</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>115885</v>
@@ -1526,33 +1578,33 @@
         <v>9195261</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O9" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P9" s="2">
         <v>44832</v>
       </c>
       <c r="Q9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>44834</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>119405</v>
@@ -1579,33 +1631,33 @@
         <v>9446892</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N10" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P10" s="2">
         <v>44833</v>
       </c>
       <c r="Q10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>44834</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>119405</v>
@@ -1632,33 +1684,33 @@
         <v>9446892</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N11" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O11" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P11" s="2">
         <v>44833</v>
       </c>
       <c r="Q11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>44834</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>119586</v>
@@ -1685,33 +1737,33 @@
         <v>9496557</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="N12" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O12" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P12" s="2">
         <v>44833</v>
       </c>
       <c r="Q12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>44834</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>119588</v>
@@ -1738,33 +1790,33 @@
         <v>9496857</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N13" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O13" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P13" s="2">
         <v>44833</v>
       </c>
       <c r="Q13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <v>119588</v>
@@ -1779,45 +1831,45 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N14" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O14" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>44838</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>119588</v>
@@ -1844,33 +1896,33 @@
         <v>9496857</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N15" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O15" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>44839</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D16">
         <v>123828</v>
@@ -1897,36 +1949,36 @@
         <v>9877790</v>
       </c>
       <c r="L16" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N16" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O16" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P16" s="2">
         <v>44838</v>
       </c>
       <c r="Q16" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
         <v>44839</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D17">
         <v>17716</v>
@@ -1953,36 +2005,36 @@
         <v>1321876</v>
       </c>
       <c r="L17" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O17" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P17" s="2">
         <v>44838</v>
       </c>
       <c r="Q17" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
         <v>44840</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D18">
         <v>123828</v>
@@ -2009,36 +2061,36 @@
         <v>9877790</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P18" s="2">
         <v>44838</v>
       </c>
       <c r="Q18" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2">
         <v>44840</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>17716</v>
@@ -2065,36 +2117,36 @@
         <v>1321876</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P19" s="2">
         <v>44838</v>
       </c>
       <c r="Q19" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2">
         <v>44840</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D20">
         <v>17894</v>
@@ -2121,36 +2173,36 @@
         <v>1681496</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P20" s="2">
         <v>44838</v>
       </c>
       <c r="Q20" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2">
         <v>44841</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>21791</v>
@@ -2177,36 +2229,36 @@
         <v>1918443</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P21" s="2">
         <v>44839</v>
       </c>
       <c r="Q21" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2">
         <v>44841</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D22">
         <v>21791</v>
@@ -2233,36 +2285,36 @@
         <v>1918443</v>
       </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P22" s="2">
         <v>44839</v>
       </c>
       <c r="Q22" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2">
         <v>44841</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D23">
         <v>25767</v>
@@ -2289,36 +2341,36 @@
         <v>2217144</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P23" s="2">
         <v>44840</v>
       </c>
       <c r="Q23" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2">
         <v>44842</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D24">
         <v>29980</v>
@@ -2345,36 +2397,36 @@
         <v>2560624</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P24" s="2">
         <v>44841</v>
       </c>
       <c r="Q24" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2">
         <v>48862</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <v>38950</v>
@@ -2401,36 +2453,36 @@
         <v>3255950</v>
       </c>
       <c r="L25" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P25" s="2">
         <v>44843</v>
       </c>
       <c r="Q25" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="2">
         <v>44845</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>38966</v>
@@ -2457,36 +2509,36 @@
         <v>3258184</v>
       </c>
       <c r="L26" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P26" s="2">
         <v>44843</v>
       </c>
       <c r="Q26" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="2">
         <v>44847</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D27">
         <v>38966</v>
@@ -2513,36 +2565,36 @@
         <v>3258184</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P27" s="2">
         <v>44843</v>
       </c>
       <c r="Q27" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2">
         <v>44848</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D28">
         <v>38966</v>
@@ -2569,36 +2621,36 @@
         <v>3258184</v>
       </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P28" s="2">
         <v>44843</v>
       </c>
       <c r="Q28" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2">
         <v>44851</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D29">
         <v>43211</v>
@@ -2625,36 +2677,36 @@
         <v>3680975</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="M29" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="N29" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P29" s="2">
         <v>44844</v>
       </c>
       <c r="Q29" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="2">
         <v>44853</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D30">
         <v>73190</v>
@@ -2681,36 +2733,36 @@
         <v>6140546</v>
       </c>
       <c r="L30" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="M30" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P30" s="2">
         <v>44851</v>
       </c>
       <c r="Q30" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2">
         <v>44853</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D31">
         <v>73190</v>
@@ -2737,36 +2789,36 @@
         <v>6140546</v>
       </c>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="M31" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="N31" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P31" s="2">
         <v>44851</v>
       </c>
       <c r="Q31" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="2">
         <v>44854</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D32">
         <v>78623</v>
@@ -2793,36 +2845,36 @@
         <v>6886328</v>
       </c>
       <c r="L32" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N32" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P32" s="2">
         <v>44852</v>
       </c>
       <c r="Q32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2">
         <v>44858</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D33">
         <v>95642</v>
@@ -2837,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8271020.7599999998</v>
+        <v>8271020.76</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2846,39 +2898,39 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>8271020.7599999998</v>
+        <v>8271020.76</v>
       </c>
       <c r="L33" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="M33" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N33" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O33" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P33" s="2">
         <v>44856</v>
       </c>
       <c r="Q33" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>26.000324074074079</v>
+        <v>26.00032407407408</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D34">
         <v>95713</v>
@@ -2893,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>8290465.7599999998</v>
+        <v>8290465.76</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2902,39 +2954,39 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>8290465.7599999998</v>
+        <v>8290465.76</v>
       </c>
       <c r="L34" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N34" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P34" s="2">
         <v>44856</v>
       </c>
       <c r="Q34" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="2">
         <v>44860</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>109023</v>
@@ -2949,7 +3001,7 @@
         <v>4071</v>
       </c>
       <c r="H35">
-        <v>9058803.7599999998</v>
+        <v>9058803.76</v>
       </c>
       <c r="I35">
         <v>483</v>
@@ -2958,39 +3010,39 @@
         <v>289373</v>
       </c>
       <c r="K35">
-        <v>9348659.7599999998</v>
+        <v>9348659.76</v>
       </c>
       <c r="L35" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O35" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P35" s="2">
         <v>44859</v>
       </c>
       <c r="Q35" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="2">
         <v>44861</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D36">
         <v>110174</v>
@@ -3005,7 +3057,7 @@
         <v>1149</v>
       </c>
       <c r="H36">
-        <v>9348886.7599999998</v>
+        <v>9348886.76</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3014,39 +3066,39 @@
         <v>100606</v>
       </c>
       <c r="K36">
-        <v>9449492.7599999998</v>
+        <v>9449492.76</v>
       </c>
       <c r="L36" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="M36" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="N36" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O36" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P36" s="2">
         <v>44860</v>
       </c>
       <c r="Q36" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="2">
         <v>44862</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D37">
         <v>113316</v>
@@ -3061,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9653641.7599999998</v>
+        <v>9653641.76</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3070,39 +3122,39 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>9653641.7599999998</v>
+        <v>9653641.76</v>
       </c>
       <c r="L37" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O37" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P37" s="2">
         <v>44860</v>
       </c>
       <c r="Q37" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="2">
         <v>44865</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D38">
         <v>126415</v>
@@ -3129,36 +3181,36 @@
         <v>10737943.76</v>
       </c>
       <c r="L38" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="M38" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="N38" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O38" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P38" s="2">
         <v>44863</v>
       </c>
       <c r="Q38" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="2">
         <v>44868</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D39">
         <v>7893</v>
@@ -3185,36 +3237,36 @@
         <v>585820</v>
       </c>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="N39" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O39" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P39" s="2">
         <v>44867</v>
       </c>
       <c r="Q39" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="2">
         <v>44869</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D40">
         <v>11708</v>
@@ -3241,36 +3293,36 @@
         <v>843190</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="N40" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O40" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P40" s="2">
         <v>44868</v>
       </c>
       <c r="Q40" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="2">
         <v>44869</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D41">
         <v>11709</v>
@@ -3297,36 +3349,36 @@
         <v>843535</v>
       </c>
       <c r="L41" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N41" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O41" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P41" s="2">
         <v>44868</v>
       </c>
       <c r="Q41" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="2">
         <v>44872</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D42">
         <v>20950</v>
@@ -3353,36 +3405,36 @@
         <v>1530165</v>
       </c>
       <c r="L42" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M42" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N42" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O42" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P42" s="2">
         <v>44870</v>
       </c>
       <c r="Q42" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="2">
         <v>44873</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D43">
         <v>20950</v>
@@ -3409,36 +3461,36 @@
         <v>1530165</v>
       </c>
       <c r="L43" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M43" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N43" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O43" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P43" s="2">
         <v>44870</v>
       </c>
       <c r="Q43" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="2">
         <v>44875</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>34802</v>
@@ -3465,36 +3517,36 @@
         <v>2899358</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="M44" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N44" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O44" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P44" s="2">
         <v>44873</v>
       </c>
       <c r="Q44" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="2">
         <v>44879</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <v>55233</v>
@@ -3521,36 +3573,36 @@
         <v>4375323</v>
       </c>
       <c r="L45" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N45" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O45" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P45" s="2">
         <v>44878</v>
       </c>
       <c r="Q45" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="2">
         <v>44880</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D46">
         <v>58120</v>
@@ -3577,36 +3629,36 @@
         <v>4517115</v>
       </c>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N46" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O46" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P46" s="2">
         <v>44879</v>
       </c>
       <c r="Q46" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="2">
         <v>44881</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D47">
         <v>58120</v>
@@ -3633,36 +3685,36 @@
         <v>4517115</v>
       </c>
       <c r="L47" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N47" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O47" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P47" s="2">
         <v>44879</v>
       </c>
       <c r="Q47" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="2">
         <v>44881</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D48">
         <v>58131</v>
@@ -3689,36 +3741,36 @@
         <v>4641796</v>
       </c>
       <c r="L48" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M48" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N48" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O48" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="P48" s="2">
         <v>44879</v>
       </c>
       <c r="Q48" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2">
         <v>44882</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D49">
         <v>60243</v>
@@ -3745,36 +3797,36 @@
         <v>4848218</v>
       </c>
       <c r="L49" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="M49" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N49" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O49" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P49" s="2">
         <v>44880</v>
       </c>
       <c r="Q49" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R49" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2">
         <v>44886</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D50">
         <v>78219</v>
@@ -3801,36 +3853,36 @@
         <v>6075424</v>
       </c>
       <c r="L50" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="M50" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N50" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O50" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P50" s="2">
         <v>44885</v>
       </c>
       <c r="Q50" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2">
         <v>44886</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>79918</v>
@@ -3857,36 +3909,36 @@
         <v>6580644</v>
       </c>
       <c r="L51" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N51" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P51" s="2">
         <v>44885</v>
       </c>
       <c r="Q51" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="2">
         <v>44887</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D52">
         <v>82671</v>
@@ -3913,36 +3965,36 @@
         <v>6725214</v>
       </c>
       <c r="L52" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N52" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O52" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P52" s="2">
         <v>44886</v>
       </c>
       <c r="Q52" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="2">
         <v>44888</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D53">
         <v>82671</v>
@@ -3969,36 +4021,36 @@
         <v>6725214</v>
       </c>
       <c r="L53" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M53" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N53" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O53" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P53" s="2">
         <v>44886</v>
       </c>
       <c r="Q53" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R53" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="2">
         <v>44889</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D54">
         <v>82671</v>
@@ -4025,36 +4077,36 @@
         <v>6725214</v>
       </c>
       <c r="L54" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N54" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O54" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P54" s="2">
         <v>44886</v>
       </c>
       <c r="Q54" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R54" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2">
         <v>44890</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D55">
         <v>82671</v>
@@ -4081,36 +4133,36 @@
         <v>6725214</v>
       </c>
       <c r="L55" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M55" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N55" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O55" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P55" s="2">
         <v>44886</v>
       </c>
       <c r="Q55" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2">
         <v>44890</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D56">
         <v>82707</v>
@@ -4137,36 +4189,36 @@
         <v>6736637.5</v>
       </c>
       <c r="L56" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M56" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N56" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O56" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P56" s="2">
         <v>44886</v>
       </c>
       <c r="Q56" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R56" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2">
         <v>44893</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D57">
         <v>96845</v>
@@ -4193,36 +4245,36 @@
         <v>7501594.5</v>
       </c>
       <c r="L57" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N57" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O57" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P57" s="2">
         <v>44891</v>
       </c>
       <c r="Q57" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="2">
         <v>44894</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D58">
         <v>104299</v>
@@ -4249,36 +4301,36 @@
         <v>8024630.5</v>
       </c>
       <c r="L58" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="M58" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N58" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O58" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P58" s="2">
         <v>44893</v>
       </c>
       <c r="Q58" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R58" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="2">
         <v>44895</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D59">
         <v>107078</v>
@@ -4305,36 +4357,36 @@
         <v>8156952.5</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M59" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N59" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O59" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P59" s="2">
         <v>44894</v>
       </c>
       <c r="Q59" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R59" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="2">
         <v>44895</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D60">
         <v>107094</v>
@@ -4361,36 +4413,36 @@
         <v>8164036</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M60" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="N60" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O60" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P60" s="2">
         <v>44894</v>
       </c>
       <c r="Q60" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2">
         <v>44896</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D61">
         <v>107094</v>
@@ -4417,36 +4469,36 @@
         <v>8164036</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M61" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="N61" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O61" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P61" s="2">
         <v>44894</v>
       </c>
       <c r="Q61" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="2">
         <v>44901</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D62">
         <v>111763</v>
@@ -4473,36 +4525,36 @@
         <v>8514390.5</v>
       </c>
       <c r="L62" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M62" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N62" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O62" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P62" s="2">
         <v>44898</v>
       </c>
       <c r="Q62" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R62" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2">
         <v>44901</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D63">
         <v>14637</v>
@@ -4529,36 +4581,36 @@
         <v>1381515</v>
       </c>
       <c r="L63" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N63" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O63" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P63" s="2">
         <v>44898</v>
       </c>
       <c r="Q63" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="2">
         <v>44902</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D64">
         <v>14637</v>
@@ -4585,39 +4637,39 @@
         <v>1381515</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M64" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N64" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O64" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P64" s="2">
         <v>44898</v>
       </c>
       <c r="Q64" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R64" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="S64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="2">
         <v>44904</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D65">
         <v>27850</v>
@@ -4644,36 +4696,36 @@
         <v>2051966</v>
       </c>
       <c r="L65" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N65" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O65" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P65" s="2">
         <v>44902</v>
       </c>
       <c r="Q65" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="2">
         <v>44907</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D66">
         <v>27850</v>
@@ -4700,36 +4752,36 @@
         <v>2051966</v>
       </c>
       <c r="L66" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M66" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N66" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O66" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P66" s="2">
         <v>44902</v>
       </c>
       <c r="Q66" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R66" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="2">
         <v>44908</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D67">
         <v>27850</v>
@@ -4756,36 +4808,36 @@
         <v>2051966</v>
       </c>
       <c r="L67" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M67" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N67" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O67" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P67" s="2">
         <v>44902</v>
       </c>
       <c r="Q67" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R67" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="2">
         <v>44909</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D68">
         <v>27886</v>
@@ -4812,36 +4864,36 @@
         <v>2063301.5</v>
       </c>
       <c r="L68" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M68" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N68" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O68" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P68" s="2">
         <v>44902</v>
       </c>
       <c r="Q68" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="2">
         <v>44910</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D69">
         <v>27887</v>
@@ -4868,36 +4920,36 @@
         <v>2063600.5</v>
       </c>
       <c r="L69" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M69" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N69" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O69" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P69" s="2">
         <v>44902</v>
       </c>
       <c r="Q69" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R69" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="2">
         <v>44911</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D70">
         <v>27893</v>
@@ -4924,36 +4976,36 @@
         <v>2151908.5</v>
       </c>
       <c r="L70" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M70" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N70" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O70" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P70" s="2">
         <v>44902</v>
       </c>
       <c r="Q70" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="2">
         <v>44914</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D71">
         <v>63472</v>
@@ -4980,36 +5032,36 @@
         <v>4180152.5</v>
       </c>
       <c r="L71" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="M71" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N71" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O71" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P71" s="2">
         <v>44913</v>
       </c>
       <c r="Q71" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="2">
         <v>44915</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D72">
         <v>68513</v>
@@ -5036,36 +5088,36 @@
         <v>4941418.5</v>
       </c>
       <c r="L72" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N72" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O72" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P72" s="2">
         <v>44914</v>
       </c>
       <c r="Q72" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="2">
         <v>44916</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D73">
         <v>71893</v>
@@ -5092,36 +5144,36 @@
         <v>5098424.5</v>
       </c>
       <c r="L73" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="M73" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N73" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O73" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P73" s="2">
         <v>44915</v>
       </c>
       <c r="Q73" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="2">
         <v>44917</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D74">
         <v>75955</v>
@@ -5148,36 +5200,36 @@
         <v>5299840.5</v>
       </c>
       <c r="L74" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M74" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N74" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O74" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P74" s="2">
         <v>44916</v>
       </c>
       <c r="Q74" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R74" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="2">
         <v>44918</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D75">
         <v>79932</v>
@@ -5204,36 +5256,36 @@
         <v>5479766.5</v>
       </c>
       <c r="L75" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="M75" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N75" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O75" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P75" s="2">
         <v>44917</v>
       </c>
       <c r="Q75" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="2">
         <v>44921</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D76">
         <v>90921</v>
@@ -5260,36 +5312,36 @@
         <v>6003559.5</v>
       </c>
       <c r="L76" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="M76" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N76" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O76" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P76" s="2">
         <v>44920</v>
       </c>
       <c r="Q76" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="2">
         <v>44922</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D77">
         <v>94721</v>
@@ -5304,7 +5356,7 @@
         <v>54</v>
       </c>
       <c r="H77">
-        <v>6226209.1699999999</v>
+        <v>6226209.17</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5313,39 +5365,39 @@
         <v>2650.1</v>
       </c>
       <c r="K77">
-        <v>6228859.2699999996</v>
+        <v>6228859.27</v>
       </c>
       <c r="L77" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="M77" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N77" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O77" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P77" s="2">
         <v>44921</v>
       </c>
       <c r="Q77" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R77" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="2">
         <v>44922</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D78">
         <v>94721</v>
@@ -5360,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>6228859.2699999996</v>
+        <v>6228859.27</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5369,39 +5421,39 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>6228859.2699999996</v>
+        <v>6228859.27</v>
       </c>
       <c r="L78" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="M78" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N78" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O78" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P78" s="2">
         <v>44921</v>
       </c>
       <c r="Q78" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="2">
         <v>44923</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D79">
         <v>94721</v>
@@ -5416,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>6228859.2699999996</v>
+        <v>6228859.27</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5425,39 +5477,39 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>6228859.2699999996</v>
+        <v>6228859.27</v>
       </c>
       <c r="L79" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="M79" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N79" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O79" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P79" s="2">
         <v>44921</v>
       </c>
       <c r="Q79" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R79" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="2">
         <v>44924</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D80">
         <v>99529</v>
@@ -5472,7 +5524,7 @@
         <v>2185</v>
       </c>
       <c r="H80">
-        <v>6361519.2699999996</v>
+        <v>6361519.27</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5481,39 +5533,39 @@
         <v>111881</v>
       </c>
       <c r="K80">
-        <v>6473400.2699999996</v>
+        <v>6473400.27</v>
       </c>
       <c r="L80" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="M80" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N80" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O80" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P80" s="2">
         <v>44923</v>
       </c>
       <c r="Q80" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="2">
         <v>44924</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D81">
         <v>99529</v>
@@ -5528,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>6473374.2699999996</v>
+        <v>6473374.27</v>
       </c>
       <c r="I81">
         <v>26</v>
@@ -5537,39 +5589,39 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>6473400.2699999996</v>
+        <v>6473400.27</v>
       </c>
       <c r="L81" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="M81" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N81" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O81" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P81" s="2">
         <v>44923</v>
       </c>
       <c r="Q81" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="2">
         <v>44928</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D82">
         <v>3505</v>
@@ -5596,36 +5648,36 @@
         <v>234468</v>
       </c>
       <c r="L82" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="M82" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N82" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O82" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P82" s="2">
         <v>44927</v>
       </c>
       <c r="Q82" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R82" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="2">
         <v>44929</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D83">
         <v>109102</v>
@@ -5640,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>7099635.2699999996</v>
+        <v>7099635.27</v>
       </c>
       <c r="I83">
         <v>26</v>
@@ -5649,39 +5701,39 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>7099661.2699999996</v>
+        <v>7099661.27</v>
       </c>
       <c r="L83" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="M83" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N83" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O83" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P83" s="2">
         <v>44928</v>
       </c>
       <c r="Q83" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R83" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="2">
         <v>44929</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D84">
         <v>6781</v>
@@ -5708,36 +5760,36 @@
         <v>453927</v>
       </c>
       <c r="L84" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="M84" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N84" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O84" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P84" s="2">
         <v>44928</v>
       </c>
       <c r="Q84" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R84" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="2">
         <v>44930</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D85">
         <v>109222</v>
@@ -5752,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7135846.5999999996</v>
+        <v>7135846.6</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5761,39 +5813,39 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>7135846.5999999996</v>
+        <v>7135846.6</v>
       </c>
       <c r="L85" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="M85" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="N85" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O85" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P85" s="2">
         <v>44928</v>
       </c>
       <c r="Q85" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R85" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="2">
         <v>44930</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D86">
         <v>6781</v>
@@ -5820,36 +5872,36 @@
         <v>453927</v>
       </c>
       <c r="L86" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="M86" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="N86" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O86" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P86" s="2">
         <v>44928</v>
       </c>
       <c r="Q86" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R86" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="2">
         <v>44931</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D87">
         <v>109240</v>
@@ -5864,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>12090673.109999999</v>
+        <v>12090673.11</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5873,39 +5925,39 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>12090673.109999999</v>
+        <v>12090673.11</v>
       </c>
       <c r="L87" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="M87" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="N87" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O87" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P87" s="2">
         <v>44930</v>
       </c>
       <c r="Q87" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="2">
         <v>44931</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D88">
         <v>14923</v>
@@ -5932,36 +5984,36 @@
         <v>1419092</v>
       </c>
       <c r="L88" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="M88" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="N88" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O88" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P88" s="2">
         <v>44930</v>
       </c>
       <c r="Q88" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="2">
         <v>44932</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D89">
         <v>18332</v>
@@ -5988,36 +6040,36 @@
         <v>1602619</v>
       </c>
       <c r="L89" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="M89" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="N89" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O89" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="P89" s="2">
         <v>44931</v>
       </c>
       <c r="Q89" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="2">
         <v>44938</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D90">
         <v>38104</v>
@@ -6044,15 +6096,15 @@
         <v>2666164</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="2">
         <v>44942</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D91">
         <v>41278</v>
@@ -6079,36 +6131,36 @@
         <v>2823444</v>
       </c>
       <c r="L91" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="M91" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="N91" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O91" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P91" s="2">
         <v>44938</v>
       </c>
       <c r="Q91" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="2">
         <v>44949</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D92">
         <v>80941</v>
@@ -6123,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>5619116.3099999996</v>
+        <v>5619116.31</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6132,39 +6184,39 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>5619116.3099999996</v>
+        <v>5619116.31</v>
       </c>
       <c r="L92" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M92" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="N92" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O92" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P92" s="2">
         <v>44948</v>
       </c>
       <c r="Q92" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R92" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="2">
         <v>44950</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>84087</v>
@@ -6179,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>5780172.3099999996</v>
+        <v>5780172.31</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6188,39 +6240,39 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>5780172.3099999996</v>
+        <v>5780172.31</v>
       </c>
       <c r="L93" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="M93" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="N93" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O93" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P93" s="2">
         <v>44949</v>
       </c>
       <c r="Q93" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R93" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="2">
         <v>44952</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D94">
         <v>90600</v>
@@ -6235,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>6191836.3099999996</v>
+        <v>6191836.31</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6244,42 +6296,42 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>6191836.3099999996</v>
+        <v>6191836.31</v>
       </c>
       <c r="L94" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="M94" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="N94" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O94" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="P94" s="2">
         <v>44951</v>
       </c>
       <c r="Q94" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R94" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="2">
         <v>44956</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D95">
-        <v>96.129000000000005</v>
+        <v>96.129</v>
       </c>
       <c r="E95">
         <v>90600</v>
@@ -6291,7 +6343,7 @@
         <v>5529</v>
       </c>
       <c r="H95">
-        <v>6191836.3099999996</v>
+        <v>6191836.31</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6300,39 +6352,39 @@
         <v>296798</v>
       </c>
       <c r="K95">
-        <v>6488634.3099999996</v>
+        <v>6488634.31</v>
       </c>
       <c r="L95" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="M95" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="N95" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O95" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="P95" s="2">
         <v>44953</v>
       </c>
       <c r="Q95" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="R95" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D96">
         <v>96133</v>
@@ -6347,16 +6399,415 @@
         <v>5533</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="J96" t="s">
+        <v>137</v>
+      </c>
+      <c r="K96" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97">
+        <v>96133</v>
+      </c>
+      <c r="E97">
+        <v>90600</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>5533</v>
+      </c>
+      <c r="H97" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+      <c r="J97" t="s">
+        <v>137</v>
+      </c>
+      <c r="K97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="C99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="C100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101">
+        <v>23951</v>
+      </c>
+      <c r="E101">
+        <v>19427</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>4520</v>
+      </c>
+      <c r="H101" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+      <c r="K101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102">
+        <v>23951</v>
+      </c>
+      <c r="E102">
+        <v>20005</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>3946</v>
+      </c>
+      <c r="H102" t="s">
+        <v>128</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+      <c r="K102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103">
+        <v>23951</v>
+      </c>
+      <c r="E103">
+        <v>23852</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>99</v>
+      </c>
+      <c r="H103" t="s">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+      <c r="K103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104">
+        <v>23951</v>
+      </c>
+      <c r="E104">
+        <v>23852</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>99</v>
+      </c>
+      <c r="H104" t="s">
+        <v>129</v>
+      </c>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+      <c r="J104" t="s">
+        <v>140</v>
+      </c>
+      <c r="K104" t="s">
+        <v>130</v>
+      </c>
+      <c r="T104" s="2">
+        <v>44962.99979166667</v>
+      </c>
+      <c r="U104" s="2">
+        <v>44960</v>
+      </c>
+      <c r="V104" s="2">
+        <v>44960.49336998843</v>
+      </c>
+      <c r="W104" s="2">
+        <v>44957.72997931713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105">
+        <v>23951</v>
+      </c>
+      <c r="E105">
+        <v>23852</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>99</v>
+      </c>
+      <c r="H105" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+      <c r="K105" t="s">
+        <v>130</v>
+      </c>
+      <c r="L105" s="2">
+        <v>44962.99979166667</v>
+      </c>
+      <c r="M105" s="2">
+        <v>44960</v>
+      </c>
+      <c r="N105" s="2">
+        <v>44960.49336998843</v>
+      </c>
+      <c r="O105" s="2">
+        <v>44957.72997931713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="K96" t="s">
-        <v>115</v>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106">
+        <v>23951</v>
+      </c>
+      <c r="E106">
+        <v>23951</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>130</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+      <c r="K106" t="s">
+        <v>130</v>
+      </c>
+      <c r="L106" s="2">
+        <v>44962.99979166667</v>
+      </c>
+      <c r="M106" s="2">
+        <v>44960</v>
+      </c>
+      <c r="N106" s="2">
+        <v>44960.49336998843</v>
+      </c>
+      <c r="O106" s="2">
+        <v>44957.72997931713</v>
+      </c>
+      <c r="P106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107">
+        <v>30917</v>
+      </c>
+      <c r="E107">
+        <v>25312</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>5604</v>
+      </c>
+      <c r="H107" t="s">
+        <v>131</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+      <c r="K107" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="2">
+        <v>44964.99996527778</v>
+      </c>
+      <c r="M107" s="2">
+        <v>44960</v>
+      </c>
+      <c r="N107" s="2">
+        <v>44960.49336998843</v>
+      </c>
+      <c r="O107" s="2">
+        <v>44957.72997931713</v>
+      </c>
+      <c r="P107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108">
+        <v>30917</v>
+      </c>
+      <c r="E108">
+        <v>25332</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>5585</v>
+      </c>
+      <c r="H108" t="s">
+        <v>132</v>
+      </c>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+      <c r="K108" t="s">
+        <v>145</v>
+      </c>
+      <c r="L108" s="2">
+        <v>44964.99996527778</v>
+      </c>
+      <c r="M108" s="2">
+        <v>44960</v>
+      </c>
+      <c r="N108" s="2">
+        <v>44960.49336998843</v>
+      </c>
+      <c r="O108" s="2">
+        <v>44957.72997931713</v>
+      </c>
+      <c r="P108" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Acompanhamento SIF GRU.xlsx
+++ b/Acompanhamento SIF GRU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="254">
   <si>
     <t>Data</t>
   </si>
@@ -73,34 +73,16 @@
     <t>Unnamed: 18</t>
   </si>
   <si>
-    <t>Rotativo</t>
-  </si>
-  <si>
-    <t>MensalistaPF</t>
-  </si>
-  <si>
-    <t>MensalistaPJ</t>
-  </si>
-  <si>
-    <t>Selos</t>
-  </si>
-  <si>
     <t>03/out</t>
   </si>
   <si>
-    <t>30/01/2023</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>06/02/2023</t>
-  </si>
-  <si>
-    <t>07/02/2023</t>
-  </si>
-  <si>
-    <t>08/02/2023</t>
+    <t>23/02/2023</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>27/02/2023</t>
   </si>
   <si>
     <t>12:36:00</t>
@@ -355,31 +337,58 @@
     <t>08:24:00</t>
   </si>
   <si>
-    <t>18:41</t>
-  </si>
-  <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>09:34</t>
-  </si>
-  <si>
-    <t>08:47</t>
-  </si>
-  <si>
-    <t>15:01</t>
-  </si>
-  <si>
-    <t>15:09</t>
-  </si>
-  <si>
-    <t>09:51</t>
-  </si>
-  <si>
-    <t>09:53</t>
+    <t>09:55:00</t>
+  </si>
+  <si>
+    <t>10:19:00</t>
+  </si>
+  <si>
+    <t>08:54:00</t>
+  </si>
+  <si>
+    <t>08:31:00</t>
+  </si>
+  <si>
+    <t>08:47:00</t>
+  </si>
+  <si>
+    <t>09:53:00</t>
+  </si>
+  <si>
+    <t>06:48:00</t>
+  </si>
+  <si>
+    <t>09:46:00</t>
+  </si>
+  <si>
+    <t>10:04:00</t>
+  </si>
+  <si>
+    <t>08:03:00</t>
+  </si>
+  <si>
+    <t>13:44:00</t>
+  </si>
+  <si>
+    <t>15:29:00</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>17:05:00</t>
+  </si>
+  <si>
+    <t>09:13:00</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>17:26</t>
+  </si>
+  <si>
+    <t>07:57</t>
   </si>
   <si>
     <t>Pedro</t>
@@ -394,25 +403,13 @@
     <t>R$ 9.496.799,00</t>
   </si>
   <si>
-    <t>R$ 6.191.836,31</t>
-  </si>
-  <si>
-    <t>R$ 1.751.705,00</t>
-  </si>
-  <si>
-    <t>R$ 1.789.445,00</t>
-  </si>
-  <si>
-    <t>R$ 2.050.704,33</t>
-  </si>
-  <si>
-    <t>R$ 2.058.081,33</t>
-  </si>
-  <si>
-    <t>R$ 2.151.509,33</t>
-  </si>
-  <si>
-    <t>R$ 2.152.712,33</t>
+    <t>R$ 5.616.123,82</t>
+  </si>
+  <si>
+    <t>R$ 6.632.770,82</t>
+  </si>
+  <si>
+    <t>R$ 7.152.446,82</t>
   </si>
   <si>
     <t>R$ 58,00</t>
@@ -421,37 +418,13 @@
     <t>R$ 0,00</t>
   </si>
   <si>
-    <t>R$ 345,00</t>
-  </si>
-  <si>
-    <t>R$ 61,00</t>
-  </si>
-  <si>
-    <t>R$ 331.704,00</t>
-  </si>
-  <si>
-    <t>R$ 306.031,33</t>
-  </si>
-  <si>
-    <t>R$ 268.636,33</t>
-  </si>
-  <si>
-    <t>R$ 7.377,00</t>
-  </si>
-  <si>
-    <t>R$ 344.602,00</t>
-  </si>
-  <si>
-    <t>R$ 343.460,00</t>
+    <t>R$ 28,00</t>
   </si>
   <si>
     <t>R$ 9.496.857,00</t>
   </si>
   <si>
-    <t>R$ 6.523.540,31</t>
-  </si>
-  <si>
-    <t>R$ 2.496.172,33</t>
+    <t>R$ 7.152.474,82</t>
   </si>
   <si>
     <t>2022-09-13 14:51:41.000</t>
@@ -598,6 +571,24 @@
     <t>2023-01-27 23:59:40.000</t>
   </si>
   <si>
+    <t>2023-02-02 23:59:46.000</t>
+  </si>
+  <si>
+    <t>2023-02-05 23:59:42.000</t>
+  </si>
+  <si>
+    <t>2023-02-08 23:58:00.000</t>
+  </si>
+  <si>
+    <t>2023-02-20 23:58:58</t>
+  </si>
+  <si>
+    <t>2023-02-22 23:59:44</t>
+  </si>
+  <si>
+    <t>2023-02-25 23:59:41</t>
+  </si>
+  <si>
     <t>2022-09-21 17:07:47.437</t>
   </si>
   <si>
@@ -661,6 +652,18 @@
     <t>2023-01-20 00:00:00.000</t>
   </si>
   <si>
+    <t>2023-01-31 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2023-02-03 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2023-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-22 00:00:00</t>
+  </si>
+  <si>
     <t>2022-09-08 11:51:19.513</t>
   </si>
   <si>
@@ -676,6 +679,12 @@
     <t>2023-01-05 11:40:56.657</t>
   </si>
   <si>
+    <t>2023-02-03 11:50:27.167</t>
+  </si>
+  <si>
+    <t>2023-02-03 11:50:27.167000</t>
+  </si>
+  <si>
     <t>2022-09-09 17:17:53.717</t>
   </si>
   <si>
@@ -706,10 +715,40 @@
     <t>2023-01-20 16:35:35.423</t>
   </si>
   <si>
+    <t>2023-01-26 16:09:40.233</t>
+  </si>
+  <si>
+    <t>2023-01-31 17:31:10.213</t>
+  </si>
+  <si>
+    <t>2023-01-31 17:31:10.213000</t>
+  </si>
+  <si>
+    <t>2023-02-06 11:10:56.400000</t>
+  </si>
+  <si>
+    <t>2023-02-13 13:23:29.293000</t>
+  </si>
+  <si>
+    <t>2023-02-15 08:47:27.680000</t>
+  </si>
+  <si>
+    <t>2023-02-16 17:50:04.257000</t>
+  </si>
+  <si>
+    <t>2023-02-24 16:02:26.523000</t>
+  </si>
+  <si>
     <t>29/09/2022</t>
   </si>
   <si>
-    <t>05/02/2023</t>
+    <t>20/02/2023</t>
+  </si>
+  <si>
+    <t>22/02/2023</t>
+  </si>
+  <si>
+    <t>Não há registros a serem exibidos.</t>
   </si>
   <si>
     <t>--</t>
@@ -731,6 +770,9 @@
   </si>
   <si>
     <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
   </si>
   <si>
     <t>FECHAMENTO</t>
@@ -1095,13 +1137,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,28 +1201,16 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>44830</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>54811</v>
@@ -1207,33 +1237,33 @@
         <v>4729017</v>
       </c>
       <c r="L2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P2" s="2">
         <v>44829</v>
       </c>
       <c r="Q2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>44831</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>54811</v>
@@ -1260,33 +1290,33 @@
         <v>4729017</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P3" s="2">
         <v>44830</v>
       </c>
       <c r="Q3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>44831</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D4">
         <v>54811</v>
@@ -1313,33 +1343,33 @@
         <v>4729017</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P4" s="2">
         <v>44830</v>
       </c>
       <c r="Q4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>44832</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>112516</v>
@@ -1366,33 +1396,33 @@
         <v>8877740</v>
       </c>
       <c r="L5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P5" s="2">
         <v>44831</v>
       </c>
       <c r="Q5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>44832</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>112521</v>
@@ -1419,33 +1449,33 @@
         <v>8946762</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P6" s="2">
         <v>44831</v>
       </c>
       <c r="Q6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>44832</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>112521</v>
@@ -1472,33 +1502,33 @@
         <v>8946762</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P7" s="2">
         <v>44831</v>
       </c>
       <c r="Q7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>44833</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>115883</v>
@@ -1525,33 +1555,33 @@
         <v>9169867</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P8" s="2">
         <v>44832</v>
       </c>
       <c r="Q8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>44833</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>115885</v>
@@ -1578,33 +1608,33 @@
         <v>9195261</v>
       </c>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P9" s="2">
         <v>44832</v>
       </c>
       <c r="Q9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>44834</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>119405</v>
@@ -1631,33 +1661,33 @@
         <v>9446892</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P10" s="2">
         <v>44833</v>
       </c>
       <c r="Q10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>44834</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>119405</v>
@@ -1684,33 +1714,33 @@
         <v>9446892</v>
       </c>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P11" s="2">
         <v>44833</v>
       </c>
       <c r="Q11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>44834</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D12">
         <v>119586</v>
@@ -1737,33 +1767,33 @@
         <v>9496557</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P12" s="2">
         <v>44833</v>
       </c>
       <c r="Q12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>44834</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D13">
         <v>119588</v>
@@ -1790,33 +1820,33 @@
         <v>9496857</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P13" s="2">
         <v>44833</v>
       </c>
       <c r="Q13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14">
         <v>119588</v>
@@ -1831,45 +1861,45 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
         <v>133</v>
       </c>
-      <c r="J14" t="s">
-        <v>134</v>
-      </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>44838</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>119588</v>
@@ -1896,33 +1926,33 @@
         <v>9496857</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P15" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>44839</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D16">
         <v>123828</v>
@@ -1949,25 +1979,25 @@
         <v>9877790</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P16" s="2">
         <v>44838</v>
       </c>
       <c r="Q16" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R16" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1975,10 +2005,10 @@
         <v>44839</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D17">
         <v>17716</v>
@@ -2005,25 +2035,25 @@
         <v>1321876</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P17" s="2">
         <v>44838</v>
       </c>
       <c r="Q17" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R17" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2031,10 +2061,10 @@
         <v>44840</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D18">
         <v>123828</v>
@@ -2061,25 +2091,25 @@
         <v>9877790</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P18" s="2">
         <v>44838</v>
       </c>
       <c r="Q18" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R18" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2087,10 +2117,10 @@
         <v>44840</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D19">
         <v>17716</v>
@@ -2117,25 +2147,25 @@
         <v>1321876</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P19" s="2">
         <v>44838</v>
       </c>
       <c r="Q19" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R19" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2143,10 +2173,10 @@
         <v>44840</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D20">
         <v>17894</v>
@@ -2173,25 +2203,25 @@
         <v>1681496</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P20" s="2">
         <v>44838</v>
       </c>
       <c r="Q20" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R20" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2199,10 +2229,10 @@
         <v>44841</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D21">
         <v>21791</v>
@@ -2229,25 +2259,25 @@
         <v>1918443</v>
       </c>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P21" s="2">
         <v>44839</v>
       </c>
       <c r="Q21" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R21" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2255,10 +2285,10 @@
         <v>44841</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D22">
         <v>21791</v>
@@ -2285,25 +2315,25 @@
         <v>1918443</v>
       </c>
       <c r="L22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P22" s="2">
         <v>44839</v>
       </c>
       <c r="Q22" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R22" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2311,10 +2341,10 @@
         <v>44841</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D23">
         <v>25767</v>
@@ -2341,25 +2371,25 @@
         <v>2217144</v>
       </c>
       <c r="L23" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P23" s="2">
         <v>44840</v>
       </c>
       <c r="Q23" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R23" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2367,10 +2397,10 @@
         <v>44842</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24">
         <v>29980</v>
@@ -2397,25 +2427,25 @@
         <v>2560624</v>
       </c>
       <c r="L24" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P24" s="2">
         <v>44841</v>
       </c>
       <c r="Q24" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R24" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2423,10 +2453,10 @@
         <v>48862</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D25">
         <v>38950</v>
@@ -2453,25 +2483,25 @@
         <v>3255950</v>
       </c>
       <c r="L25" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P25" s="2">
         <v>44843</v>
       </c>
       <c r="Q25" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R25" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2479,10 +2509,10 @@
         <v>44845</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D26">
         <v>38966</v>
@@ -2509,25 +2539,25 @@
         <v>3258184</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P26" s="2">
         <v>44843</v>
       </c>
       <c r="Q26" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R26" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2535,10 +2565,10 @@
         <v>44847</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D27">
         <v>38966</v>
@@ -2565,25 +2595,25 @@
         <v>3258184</v>
       </c>
       <c r="L27" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P27" s="2">
         <v>44843</v>
       </c>
       <c r="Q27" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R27" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2591,10 +2621,10 @@
         <v>44848</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <v>38966</v>
@@ -2621,25 +2651,25 @@
         <v>3258184</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P28" s="2">
         <v>44843</v>
       </c>
       <c r="Q28" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R28" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2647,10 +2677,10 @@
         <v>44851</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D29">
         <v>43211</v>
@@ -2677,25 +2707,25 @@
         <v>3680975</v>
       </c>
       <c r="L29" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P29" s="2">
         <v>44844</v>
       </c>
       <c r="Q29" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R29" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2703,10 +2733,10 @@
         <v>44853</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D30">
         <v>73190</v>
@@ -2733,25 +2763,25 @@
         <v>6140546</v>
       </c>
       <c r="L30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P30" s="2">
         <v>44851</v>
       </c>
       <c r="Q30" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R30" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2759,10 +2789,10 @@
         <v>44853</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D31">
         <v>73190</v>
@@ -2789,25 +2819,25 @@
         <v>6140546</v>
       </c>
       <c r="L31" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P31" s="2">
         <v>44851</v>
       </c>
       <c r="Q31" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R31" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2815,10 +2845,10 @@
         <v>44854</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D32">
         <v>78623</v>
@@ -2845,25 +2875,25 @@
         <v>6886328</v>
       </c>
       <c r="L32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P32" s="2">
         <v>44852</v>
       </c>
       <c r="Q32" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R32" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2871,10 +2901,10 @@
         <v>44858</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D33">
         <v>95642</v>
@@ -2901,36 +2931,36 @@
         <v>8271020.76</v>
       </c>
       <c r="L33" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P33" s="2">
         <v>44856</v>
       </c>
       <c r="Q33" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R33" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>26.00032407407408</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D34">
         <v>95713</v>
@@ -2957,25 +2987,25 @@
         <v>8290465.76</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P34" s="2">
         <v>44856</v>
       </c>
       <c r="Q34" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R34" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2983,10 +3013,10 @@
         <v>44860</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D35">
         <v>109023</v>
@@ -3013,25 +3043,25 @@
         <v>9348659.76</v>
       </c>
       <c r="L35" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P35" s="2">
         <v>44859</v>
       </c>
       <c r="Q35" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R35" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3039,10 +3069,10 @@
         <v>44861</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D36">
         <v>110174</v>
@@ -3069,25 +3099,25 @@
         <v>9449492.76</v>
       </c>
       <c r="L36" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O36" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P36" s="2">
         <v>44860</v>
       </c>
       <c r="Q36" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R36" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3095,10 +3125,10 @@
         <v>44862</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D37">
         <v>113316</v>
@@ -3125,25 +3155,25 @@
         <v>9653641.76</v>
       </c>
       <c r="L37" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P37" s="2">
         <v>44860</v>
       </c>
       <c r="Q37" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R37" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3151,10 +3181,10 @@
         <v>44865</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>126415</v>
@@ -3181,25 +3211,25 @@
         <v>10737943.76</v>
       </c>
       <c r="L38" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P38" s="2">
         <v>44863</v>
       </c>
       <c r="Q38" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R38" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3207,10 +3237,10 @@
         <v>44868</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D39">
         <v>7893</v>
@@ -3237,25 +3267,25 @@
         <v>585820</v>
       </c>
       <c r="L39" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P39" s="2">
         <v>44867</v>
       </c>
       <c r="Q39" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R39" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3263,10 +3293,10 @@
         <v>44869</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40">
         <v>11708</v>
@@ -3293,25 +3323,25 @@
         <v>843190</v>
       </c>
       <c r="L40" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O40" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P40" s="2">
         <v>44868</v>
       </c>
       <c r="Q40" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R40" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3319,10 +3349,10 @@
         <v>44869</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41">
         <v>11709</v>
@@ -3349,25 +3379,25 @@
         <v>843535</v>
       </c>
       <c r="L41" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P41" s="2">
         <v>44868</v>
       </c>
       <c r="Q41" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R41" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3375,10 +3405,10 @@
         <v>44872</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42">
         <v>20950</v>
@@ -3405,25 +3435,25 @@
         <v>1530165</v>
       </c>
       <c r="L42" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O42" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P42" s="2">
         <v>44870</v>
       </c>
       <c r="Q42" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R42" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3431,10 +3461,10 @@
         <v>44873</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D43">
         <v>20950</v>
@@ -3461,25 +3491,25 @@
         <v>1530165</v>
       </c>
       <c r="L43" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O43" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P43" s="2">
         <v>44870</v>
       </c>
       <c r="Q43" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R43" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3487,10 +3517,10 @@
         <v>44875</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D44">
         <v>34802</v>
@@ -3517,25 +3547,25 @@
         <v>2899358</v>
       </c>
       <c r="L44" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O44" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P44" s="2">
         <v>44873</v>
       </c>
       <c r="Q44" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R44" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3543,10 +3573,10 @@
         <v>44879</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D45">
         <v>55233</v>
@@ -3573,25 +3603,25 @@
         <v>4375323</v>
       </c>
       <c r="L45" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P45" s="2">
         <v>44878</v>
       </c>
       <c r="Q45" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R45" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3599,10 +3629,10 @@
         <v>44880</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D46">
         <v>58120</v>
@@ -3629,25 +3659,25 @@
         <v>4517115</v>
       </c>
       <c r="L46" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O46" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P46" s="2">
         <v>44879</v>
       </c>
       <c r="Q46" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R46" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3655,10 +3685,10 @@
         <v>44881</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D47">
         <v>58120</v>
@@ -3685,25 +3715,25 @@
         <v>4517115</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M47" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P47" s="2">
         <v>44879</v>
       </c>
       <c r="Q47" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R47" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3711,10 +3741,10 @@
         <v>44881</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D48">
         <v>58131</v>
@@ -3741,25 +3771,25 @@
         <v>4641796</v>
       </c>
       <c r="L48" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M48" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P48" s="2">
         <v>44879</v>
       </c>
       <c r="Q48" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R48" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3767,10 +3797,10 @@
         <v>44882</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D49">
         <v>60243</v>
@@ -3797,25 +3827,25 @@
         <v>4848218</v>
       </c>
       <c r="L49" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O49" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P49" s="2">
         <v>44880</v>
       </c>
       <c r="Q49" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R49" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3823,10 +3853,10 @@
         <v>44886</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D50">
         <v>78219</v>
@@ -3853,25 +3883,25 @@
         <v>6075424</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P50" s="2">
         <v>44885</v>
       </c>
       <c r="Q50" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R50" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3879,10 +3909,10 @@
         <v>44886</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D51">
         <v>79918</v>
@@ -3909,25 +3939,25 @@
         <v>6580644</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O51" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P51" s="2">
         <v>44885</v>
       </c>
       <c r="Q51" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R51" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -3935,10 +3965,10 @@
         <v>44887</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D52">
         <v>82671</v>
@@ -3965,25 +3995,25 @@
         <v>6725214</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P52" s="2">
         <v>44886</v>
       </c>
       <c r="Q52" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R52" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3991,10 +4021,10 @@
         <v>44888</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D53">
         <v>82671</v>
@@ -4021,25 +4051,25 @@
         <v>6725214</v>
       </c>
       <c r="L53" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P53" s="2">
         <v>44886</v>
       </c>
       <c r="Q53" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R53" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4047,10 +4077,10 @@
         <v>44889</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D54">
         <v>82671</v>
@@ -4077,25 +4107,25 @@
         <v>6725214</v>
       </c>
       <c r="L54" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P54" s="2">
         <v>44886</v>
       </c>
       <c r="Q54" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R54" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4103,10 +4133,10 @@
         <v>44890</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D55">
         <v>82671</v>
@@ -4133,25 +4163,25 @@
         <v>6725214</v>
       </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P55" s="2">
         <v>44886</v>
       </c>
       <c r="Q55" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R55" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4159,10 +4189,10 @@
         <v>44890</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D56">
         <v>82707</v>
@@ -4189,25 +4219,25 @@
         <v>6736637.5</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M56" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P56" s="2">
         <v>44886</v>
       </c>
       <c r="Q56" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R56" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4215,10 +4245,10 @@
         <v>44893</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D57">
         <v>96845</v>
@@ -4245,25 +4275,25 @@
         <v>7501594.5</v>
       </c>
       <c r="L57" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O57" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P57" s="2">
         <v>44891</v>
       </c>
       <c r="Q57" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R57" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4271,10 +4301,10 @@
         <v>44894</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D58">
         <v>104299</v>
@@ -4301,25 +4331,25 @@
         <v>8024630.5</v>
       </c>
       <c r="L58" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O58" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P58" s="2">
         <v>44893</v>
       </c>
       <c r="Q58" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R58" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4327,10 +4357,10 @@
         <v>44895</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D59">
         <v>107078</v>
@@ -4357,25 +4387,25 @@
         <v>8156952.5</v>
       </c>
       <c r="L59" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P59" s="2">
         <v>44894</v>
       </c>
       <c r="Q59" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R59" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4383,10 +4413,10 @@
         <v>44895</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D60">
         <v>107094</v>
@@ -4413,25 +4443,25 @@
         <v>8164036</v>
       </c>
       <c r="L60" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P60" s="2">
         <v>44894</v>
       </c>
       <c r="Q60" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R60" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4439,10 +4469,10 @@
         <v>44896</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D61">
         <v>107094</v>
@@ -4469,25 +4499,25 @@
         <v>8164036</v>
       </c>
       <c r="L61" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O61" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P61" s="2">
         <v>44894</v>
       </c>
       <c r="Q61" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R61" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4495,10 +4525,10 @@
         <v>44901</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D62">
         <v>111763</v>
@@ -4525,25 +4555,25 @@
         <v>8514390.5</v>
       </c>
       <c r="L62" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P62" s="2">
         <v>44898</v>
       </c>
       <c r="Q62" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R62" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4551,10 +4581,10 @@
         <v>44901</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D63">
         <v>14637</v>
@@ -4581,25 +4611,25 @@
         <v>1381515</v>
       </c>
       <c r="L63" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M63" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P63" s="2">
         <v>44898</v>
       </c>
       <c r="Q63" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R63" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4607,10 +4637,10 @@
         <v>44902</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D64">
         <v>14637</v>
@@ -4637,28 +4667,28 @@
         <v>1381515</v>
       </c>
       <c r="L64" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M64" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P64" s="2">
         <v>44898</v>
       </c>
       <c r="Q64" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R64" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="S64" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4666,10 +4696,10 @@
         <v>44904</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D65">
         <v>27850</v>
@@ -4696,25 +4726,25 @@
         <v>2051966</v>
       </c>
       <c r="L65" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M65" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P65" s="2">
         <v>44902</v>
       </c>
       <c r="Q65" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R65" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4722,10 +4752,10 @@
         <v>44907</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D66">
         <v>27850</v>
@@ -4752,25 +4782,25 @@
         <v>2051966</v>
       </c>
       <c r="L66" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M66" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P66" s="2">
         <v>44902</v>
       </c>
       <c r="Q66" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R66" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4778,10 +4808,10 @@
         <v>44908</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D67">
         <v>27850</v>
@@ -4808,25 +4838,25 @@
         <v>2051966</v>
       </c>
       <c r="L67" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P67" s="2">
         <v>44902</v>
       </c>
       <c r="Q67" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R67" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4834,10 +4864,10 @@
         <v>44909</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D68">
         <v>27886</v>
@@ -4864,25 +4894,25 @@
         <v>2063301.5</v>
       </c>
       <c r="L68" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M68" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P68" s="2">
         <v>44902</v>
       </c>
       <c r="Q68" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R68" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4890,10 +4920,10 @@
         <v>44910</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D69">
         <v>27887</v>
@@ -4920,25 +4950,25 @@
         <v>2063600.5</v>
       </c>
       <c r="L69" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M69" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P69" s="2">
         <v>44902</v>
       </c>
       <c r="Q69" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R69" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4946,10 +4976,10 @@
         <v>44911</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D70">
         <v>27893</v>
@@ -4976,25 +5006,25 @@
         <v>2151908.5</v>
       </c>
       <c r="L70" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P70" s="2">
         <v>44902</v>
       </c>
       <c r="Q70" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R70" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5002,10 +5032,10 @@
         <v>44914</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D71">
         <v>63472</v>
@@ -5032,25 +5062,25 @@
         <v>4180152.5</v>
       </c>
       <c r="L71" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P71" s="2">
         <v>44913</v>
       </c>
       <c r="Q71" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R71" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5058,10 +5088,10 @@
         <v>44915</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D72">
         <v>68513</v>
@@ -5088,25 +5118,25 @@
         <v>4941418.5</v>
       </c>
       <c r="L72" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O72" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P72" s="2">
         <v>44914</v>
       </c>
       <c r="Q72" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R72" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5114,10 +5144,10 @@
         <v>44916</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D73">
         <v>71893</v>
@@ -5144,25 +5174,25 @@
         <v>5098424.5</v>
       </c>
       <c r="L73" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P73" s="2">
         <v>44915</v>
       </c>
       <c r="Q73" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R73" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5170,10 +5200,10 @@
         <v>44917</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D74">
         <v>75955</v>
@@ -5200,25 +5230,25 @@
         <v>5299840.5</v>
       </c>
       <c r="L74" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P74" s="2">
         <v>44916</v>
       </c>
       <c r="Q74" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R74" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5226,10 +5256,10 @@
         <v>44918</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D75">
         <v>79932</v>
@@ -5256,25 +5286,25 @@
         <v>5479766.5</v>
       </c>
       <c r="L75" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P75" s="2">
         <v>44917</v>
       </c>
       <c r="Q75" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R75" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5282,10 +5312,10 @@
         <v>44921</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D76">
         <v>90921</v>
@@ -5312,25 +5342,25 @@
         <v>6003559.5</v>
       </c>
       <c r="L76" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P76" s="2">
         <v>44920</v>
       </c>
       <c r="Q76" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R76" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5338,10 +5368,10 @@
         <v>44922</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D77">
         <v>94721</v>
@@ -5368,25 +5398,25 @@
         <v>6228859.27</v>
       </c>
       <c r="L77" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M77" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P77" s="2">
         <v>44921</v>
       </c>
       <c r="Q77" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R77" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5394,10 +5424,10 @@
         <v>44922</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D78">
         <v>94721</v>
@@ -5424,25 +5454,25 @@
         <v>6228859.27</v>
       </c>
       <c r="L78" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P78" s="2">
         <v>44921</v>
       </c>
       <c r="Q78" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R78" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5450,10 +5480,10 @@
         <v>44923</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D79">
         <v>94721</v>
@@ -5480,25 +5510,25 @@
         <v>6228859.27</v>
       </c>
       <c r="L79" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O79" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P79" s="2">
         <v>44921</v>
       </c>
       <c r="Q79" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R79" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5506,10 +5536,10 @@
         <v>44924</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D80">
         <v>99529</v>
@@ -5536,25 +5566,25 @@
         <v>6473400.27</v>
       </c>
       <c r="L80" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P80" s="2">
         <v>44923</v>
       </c>
       <c r="Q80" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R80" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5562,10 +5592,10 @@
         <v>44924</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D81">
         <v>99529</v>
@@ -5592,25 +5622,25 @@
         <v>6473400.27</v>
       </c>
       <c r="L81" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O81" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P81" s="2">
         <v>44923</v>
       </c>
       <c r="Q81" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R81" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5618,10 +5648,10 @@
         <v>44928</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D82">
         <v>3505</v>
@@ -5648,25 +5678,25 @@
         <v>234468</v>
       </c>
       <c r="L82" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M82" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O82" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P82" s="2">
         <v>44927</v>
       </c>
       <c r="Q82" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R82" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5674,10 +5704,10 @@
         <v>44929</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D83">
         <v>109102</v>
@@ -5704,25 +5734,25 @@
         <v>7099661.27</v>
       </c>
       <c r="L83" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O83" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P83" s="2">
         <v>44928</v>
       </c>
       <c r="Q83" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R83" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5730,10 +5760,10 @@
         <v>44929</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D84">
         <v>6781</v>
@@ -5760,25 +5790,25 @@
         <v>453927</v>
       </c>
       <c r="L84" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O84" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P84" s="2">
         <v>44928</v>
       </c>
       <c r="Q84" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R84" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5786,10 +5816,10 @@
         <v>44930</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D85">
         <v>109222</v>
@@ -5816,25 +5846,25 @@
         <v>7135846.6</v>
       </c>
       <c r="L85" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M85" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P85" s="2">
         <v>44928</v>
       </c>
       <c r="Q85" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R85" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5842,10 +5872,10 @@
         <v>44930</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D86">
         <v>6781</v>
@@ -5872,25 +5902,25 @@
         <v>453927</v>
       </c>
       <c r="L86" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M86" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O86" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P86" s="2">
         <v>44928</v>
       </c>
       <c r="Q86" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R86" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5898,10 +5928,10 @@
         <v>44931</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D87">
         <v>109240</v>
@@ -5928,25 +5958,25 @@
         <v>12090673.11</v>
       </c>
       <c r="L87" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P87" s="2">
         <v>44930</v>
       </c>
       <c r="Q87" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R87" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5954,10 +5984,10 @@
         <v>44931</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D88">
         <v>14923</v>
@@ -5984,25 +6014,25 @@
         <v>1419092</v>
       </c>
       <c r="L88" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M88" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O88" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P88" s="2">
         <v>44930</v>
       </c>
       <c r="Q88" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R88" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6010,10 +6040,10 @@
         <v>44932</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D89">
         <v>18332</v>
@@ -6040,25 +6070,25 @@
         <v>1602619</v>
       </c>
       <c r="L89" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M89" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P89" s="2">
         <v>44931</v>
       </c>
       <c r="Q89" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R89" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6066,10 +6096,10 @@
         <v>44938</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D90">
         <v>38104</v>
@@ -6101,10 +6131,10 @@
         <v>44942</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D91">
         <v>41278</v>
@@ -6131,25 +6161,25 @@
         <v>2823444</v>
       </c>
       <c r="L91" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M91" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O91" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P91" s="2">
         <v>44938</v>
       </c>
       <c r="Q91" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R91" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6157,10 +6187,10 @@
         <v>44949</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D92">
         <v>80941</v>
@@ -6187,25 +6217,25 @@
         <v>5619116.31</v>
       </c>
       <c r="L92" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M92" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O92" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P92" s="2">
         <v>44948</v>
       </c>
       <c r="Q92" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R92" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6213,10 +6243,10 @@
         <v>44950</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D93">
         <v>84087</v>
@@ -6243,25 +6273,25 @@
         <v>5780172.31</v>
       </c>
       <c r="L93" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M93" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O93" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P93" s="2">
         <v>44949</v>
       </c>
       <c r="Q93" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R93" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6269,10 +6299,10 @@
         <v>44952</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D94">
         <v>90600</v>
@@ -6299,25 +6329,25 @@
         <v>6191836.31</v>
       </c>
       <c r="L94" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M94" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O94" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P94" s="2">
         <v>44951</v>
       </c>
       <c r="Q94" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R94" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6325,10 +6355,10 @@
         <v>44956</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D95">
         <v>96.129</v>
@@ -6355,36 +6385,36 @@
         <v>6488634.31</v>
       </c>
       <c r="L95" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O95" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P95" s="2">
         <v>44953</v>
       </c>
       <c r="Q95" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="R95" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" t="s">
-        <v>24</v>
+      <c r="A96" s="2">
+        <v>44957</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D96">
         <v>96133</v>
@@ -6398,31 +6428,52 @@
       <c r="G96">
         <v>5533</v>
       </c>
-      <c r="H96" t="s">
-        <v>126</v>
-      </c>
-      <c r="I96" t="s">
-        <v>134</v>
-      </c>
-      <c r="J96" t="s">
-        <v>137</v>
-      </c>
-      <c r="K96" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
-      <c r="A97" t="s">
-        <v>25</v>
+      <c r="H96">
+        <v>6191836.31</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>331704</v>
+      </c>
+      <c r="K96">
+        <v>6523540.31</v>
+      </c>
+      <c r="L96" t="s">
+        <v>184</v>
+      </c>
+      <c r="M96" t="s">
+        <v>211</v>
+      </c>
+      <c r="N96" t="s">
+        <v>220</v>
+      </c>
+      <c r="O96" t="s">
+        <v>233</v>
+      </c>
+      <c r="P96" s="2">
+        <v>44953</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>246</v>
+      </c>
+      <c r="R96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="2">
+        <v>44958</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D97">
-        <v>96133</v>
+        <v>96144</v>
       </c>
       <c r="E97">
         <v>90600</v>
@@ -6431,383 +6482,1154 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>5533</v>
-      </c>
-      <c r="H97" t="s">
-        <v>126</v>
-      </c>
-      <c r="I97" t="s">
-        <v>134</v>
-      </c>
-      <c r="J97" t="s">
-        <v>137</v>
-      </c>
-      <c r="K97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+        <v>5544</v>
+      </c>
+      <c r="H97">
+        <v>6191836.31</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>335790.18</v>
+      </c>
+      <c r="K97">
+        <v>6527626.49</v>
+      </c>
+      <c r="L97" t="s">
+        <v>184</v>
+      </c>
+      <c r="M97" t="s">
+        <v>212</v>
+      </c>
+      <c r="N97" t="s">
+        <v>220</v>
+      </c>
+      <c r="O97" t="s">
+        <v>233</v>
+      </c>
+      <c r="P97" s="2">
+        <v>44953</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>246</v>
+      </c>
+      <c r="R97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
       <c r="C98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+        <v>126</v>
+      </c>
+      <c r="D98">
+        <v>117622</v>
+      </c>
+      <c r="E98">
+        <v>96357</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>21265</v>
+      </c>
+      <c r="H98">
+        <v>6631866.32</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1485753.17</v>
+      </c>
+      <c r="K98">
+        <v>8117619.49</v>
+      </c>
+      <c r="L98" t="s">
+        <v>185</v>
+      </c>
+      <c r="M98" t="s">
+        <v>212</v>
+      </c>
+      <c r="N98" t="s">
+        <v>220</v>
+      </c>
+      <c r="O98" t="s">
+        <v>234</v>
+      </c>
+      <c r="P98" s="2">
+        <v>44959</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>246</v>
+      </c>
+      <c r="R98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
       <c r="C99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+        <v>126</v>
+      </c>
+      <c r="D99">
+        <v>23951</v>
+      </c>
+      <c r="E99">
+        <v>19427</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>4520</v>
+      </c>
+      <c r="H99">
+        <v>1751705</v>
+      </c>
+      <c r="I99">
+        <v>345</v>
+      </c>
+      <c r="J99">
+        <v>306031.33</v>
+      </c>
+      <c r="K99">
+        <v>2058081.33</v>
+      </c>
+      <c r="L99" t="s">
+        <v>186</v>
+      </c>
+      <c r="M99" t="s">
+        <v>213</v>
+      </c>
+      <c r="N99" t="s">
+        <v>221</v>
+      </c>
+      <c r="O99" t="s">
+        <v>234</v>
+      </c>
+      <c r="P99" s="2">
+        <v>44962</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>246</v>
+      </c>
+      <c r="R99" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
       <c r="C100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
-      <c r="A101" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="D100">
+        <v>23951</v>
+      </c>
+      <c r="E100">
+        <v>20005</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>3946</v>
+      </c>
+      <c r="H100">
+        <v>1789445</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>268636.33</v>
+      </c>
+      <c r="K100">
+        <v>2058081.33</v>
+      </c>
+      <c r="L100" t="s">
+        <v>186</v>
+      </c>
+      <c r="M100" t="s">
+        <v>213</v>
+      </c>
+      <c r="N100" t="s">
+        <v>221</v>
+      </c>
+      <c r="O100" t="s">
+        <v>234</v>
+      </c>
+      <c r="P100" s="2">
+        <v>44962</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>246</v>
+      </c>
+      <c r="R100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="2">
+        <v>44964</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D101">
         <v>23951</v>
       </c>
       <c r="E101">
-        <v>19427</v>
+        <v>23852</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>4520</v>
-      </c>
-      <c r="H101" t="s">
-        <v>127</v>
-      </c>
-      <c r="I101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J101" t="s">
-        <v>138</v>
-      </c>
-      <c r="K101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
-      <c r="A102" t="s">
-        <v>26</v>
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>2050704.33</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7377</v>
+      </c>
+      <c r="K101">
+        <v>2058081.33</v>
+      </c>
+      <c r="L101" t="s">
+        <v>186</v>
+      </c>
+      <c r="M101" t="s">
+        <v>213</v>
+      </c>
+      <c r="N101" t="s">
+        <v>221</v>
+      </c>
+      <c r="O101" t="s">
+        <v>234</v>
+      </c>
+      <c r="P101" s="2">
+        <v>44962</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>246</v>
+      </c>
+      <c r="R101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="2">
+        <v>44965</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D102">
-        <v>23951</v>
+        <v>30917</v>
       </c>
       <c r="E102">
-        <v>20005</v>
+        <v>25332</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>3946</v>
-      </c>
-      <c r="H102" t="s">
-        <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>134</v>
-      </c>
-      <c r="J102" t="s">
-        <v>139</v>
-      </c>
-      <c r="K102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
-      <c r="A103" t="s">
-        <v>27</v>
+        <v>5585</v>
+      </c>
+      <c r="H102">
+        <v>2152712.33</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>343460</v>
+      </c>
+      <c r="K102">
+        <v>2496172.33</v>
+      </c>
+      <c r="L102" t="s">
+        <v>186</v>
+      </c>
+      <c r="M102" t="s">
+        <v>213</v>
+      </c>
+      <c r="N102" t="s">
+        <v>221</v>
+      </c>
+      <c r="O102" t="s">
+        <v>234</v>
+      </c>
+      <c r="P102" s="2">
+        <v>44964</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>246</v>
+      </c>
+      <c r="R102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="2">
+        <v>44966</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D103">
-        <v>23951</v>
+        <v>34914</v>
       </c>
       <c r="E103">
-        <v>23852</v>
+        <v>31085</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>99</v>
-      </c>
-      <c r="H103" t="s">
-        <v>129</v>
-      </c>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-      <c r="J103" t="s">
-        <v>140</v>
-      </c>
-      <c r="K103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23">
-      <c r="A104" t="s">
-        <v>27</v>
+        <v>3829</v>
+      </c>
+      <c r="H103">
+        <v>2507542.33</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>263230</v>
+      </c>
+      <c r="K103">
+        <v>2770772.33</v>
+      </c>
+      <c r="L103" t="s">
+        <v>187</v>
+      </c>
+      <c r="M103" t="s">
+        <v>213</v>
+      </c>
+      <c r="N103" t="s">
+        <v>221</v>
+      </c>
+      <c r="O103" t="s">
+        <v>234</v>
+      </c>
+      <c r="P103" s="2">
+        <v>44965</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>246</v>
+      </c>
+      <c r="R103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="2">
+        <v>44967</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D104">
-        <v>23951</v>
+        <v>38833</v>
       </c>
       <c r="E104">
-        <v>23852</v>
+        <v>37219</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>99</v>
-      </c>
-      <c r="H104" t="s">
-        <v>129</v>
-      </c>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-      <c r="J104" t="s">
-        <v>140</v>
-      </c>
-      <c r="K104" t="s">
-        <v>130</v>
-      </c>
-      <c r="T104" s="2">
-        <v>44962.99979166667</v>
-      </c>
-      <c r="U104" s="2">
+        <v>1613</v>
+      </c>
+      <c r="H104">
+        <v>2957339.33</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>122058</v>
+      </c>
+      <c r="K104">
+        <v>3079497.33</v>
+      </c>
+      <c r="L104" s="2">
+        <v>44966.99991898148</v>
+      </c>
+      <c r="M104" s="2">
         <v>44960</v>
       </c>
-      <c r="V104" s="2">
-        <v>44960.49336998843</v>
-      </c>
-      <c r="W104" s="2">
-        <v>44957.72997931713</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
-      <c r="A105" t="s">
-        <v>27</v>
+      <c r="N104" t="s">
+        <v>222</v>
+      </c>
+      <c r="O104" t="s">
+        <v>235</v>
+      </c>
+      <c r="P104" s="2">
+        <v>44966</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>246</v>
+      </c>
+      <c r="R104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="2">
+        <v>44967</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D105">
-        <v>23951</v>
+        <v>38833</v>
       </c>
       <c r="E105">
-        <v>23852</v>
+        <v>37551</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>99</v>
-      </c>
-      <c r="H105" t="s">
-        <v>129</v>
-      </c>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-      <c r="J105" t="s">
-        <v>140</v>
-      </c>
-      <c r="K105" t="s">
-        <v>130</v>
+        <v>1282</v>
+      </c>
+      <c r="H105">
+        <v>2982522.33</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>96975</v>
+      </c>
+      <c r="K105">
+        <v>3079497.33</v>
       </c>
       <c r="L105" s="2">
-        <v>44962.99979166667</v>
+        <v>44966.99991898148</v>
       </c>
       <c r="M105" s="2">
         <v>44960</v>
       </c>
-      <c r="N105" s="2">
-        <v>44960.49336998843</v>
-      </c>
-      <c r="O105" s="2">
-        <v>44957.72997931713</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
-      <c r="A106" t="s">
-        <v>27</v>
+      <c r="N105" t="s">
+        <v>222</v>
+      </c>
+      <c r="O105" t="s">
+        <v>235</v>
+      </c>
+      <c r="P105" s="2">
+        <v>44966</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>246</v>
+      </c>
+      <c r="R105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="2">
+        <v>44970</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>23951</v>
+        <v>52824</v>
       </c>
       <c r="E106">
-        <v>23951</v>
+        <v>49069</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
-        <v>130</v>
-      </c>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-      <c r="J106" t="s">
-        <v>134</v>
-      </c>
-      <c r="K106" t="s">
-        <v>130</v>
+        <v>3755</v>
+      </c>
+      <c r="H106">
+        <v>3894945.33</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>275825</v>
+      </c>
+      <c r="K106">
+        <v>4170770.33</v>
       </c>
       <c r="L106" s="2">
-        <v>44962.99979166667</v>
+        <v>44969.99981481482</v>
       </c>
       <c r="M106" s="2">
         <v>44960</v>
       </c>
-      <c r="N106" s="2">
-        <v>44960.49336998843</v>
-      </c>
-      <c r="O106" s="2">
-        <v>44957.72997931713</v>
-      </c>
-      <c r="P106" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
-      <c r="A107" t="s">
-        <v>28</v>
+      <c r="N106" t="s">
+        <v>222</v>
+      </c>
+      <c r="O106" t="s">
+        <v>235</v>
+      </c>
+      <c r="P106" s="2">
+        <v>44969</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>246</v>
+      </c>
+      <c r="R106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="2">
+        <v>44970</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D107">
-        <v>30917</v>
+        <v>52824</v>
       </c>
       <c r="E107">
-        <v>25312</v>
+        <v>51225</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>5604</v>
-      </c>
-      <c r="H107" t="s">
-        <v>131</v>
-      </c>
-      <c r="I107" t="s">
-        <v>136</v>
-      </c>
-      <c r="J107" t="s">
-        <v>141</v>
-      </c>
-      <c r="K107" t="s">
-        <v>145</v>
+        <v>1599</v>
+      </c>
+      <c r="H107">
+        <v>4056815.33</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>113955</v>
+      </c>
+      <c r="K107">
+        <v>4170770.33</v>
       </c>
       <c r="L107" s="2">
-        <v>44964.99996527778</v>
+        <v>44969.99981481482</v>
       </c>
       <c r="M107" s="2">
         <v>44960</v>
       </c>
-      <c r="N107" s="2">
-        <v>44960.49336998843</v>
-      </c>
-      <c r="O107" s="2">
-        <v>44957.72997931713</v>
-      </c>
-      <c r="P107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
-      <c r="A108" t="s">
-        <v>28</v>
+      <c r="N107" t="s">
+        <v>222</v>
+      </c>
+      <c r="O107" t="s">
+        <v>235</v>
+      </c>
+      <c r="P107" s="2">
+        <v>44969</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>246</v>
+      </c>
+      <c r="R107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="2">
+        <v>44971</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D108">
-        <v>30917</v>
+        <v>52828</v>
       </c>
       <c r="E108">
-        <v>25332</v>
+        <v>52828</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>5585</v>
-      </c>
-      <c r="H108" t="s">
-        <v>132</v>
-      </c>
-      <c r="I108" t="s">
-        <v>134</v>
-      </c>
-      <c r="J108" t="s">
-        <v>142</v>
-      </c>
-      <c r="K108" t="s">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>4190920.33</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>4190920.33</v>
       </c>
       <c r="L108" s="2">
-        <v>44964.99996527778</v>
+        <v>44969.99981481482</v>
       </c>
       <c r="M108" s="2">
         <v>44960</v>
       </c>
-      <c r="N108" s="2">
-        <v>44960.49336998843</v>
-      </c>
-      <c r="O108" s="2">
-        <v>44957.72997931713</v>
-      </c>
-      <c r="P108" t="s">
-        <v>27</v>
+      <c r="N108" t="s">
+        <v>222</v>
+      </c>
+      <c r="O108" t="s">
+        <v>236</v>
+      </c>
+      <c r="P108" s="2">
+        <v>44969</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>246</v>
+      </c>
+      <c r="R108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109">
+        <v>52839</v>
+      </c>
+      <c r="E109">
+        <v>52839</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>4209906.49</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>4209906.49</v>
+      </c>
+      <c r="L109" s="2">
+        <v>44969.99981481482</v>
+      </c>
+      <c r="M109" s="2">
+        <v>44967</v>
+      </c>
+      <c r="N109" t="s">
+        <v>222</v>
+      </c>
+      <c r="O109" t="s">
+        <v>237</v>
+      </c>
+      <c r="P109" s="2">
+        <v>44969</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>246</v>
+      </c>
+      <c r="R109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110">
+        <v>57984</v>
+      </c>
+      <c r="E110">
+        <v>52885</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>5099</v>
+      </c>
+      <c r="H110">
+        <v>4212700.49</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>354029</v>
+      </c>
+      <c r="K110">
+        <v>4566729.49</v>
+      </c>
+      <c r="L110" s="2">
+        <v>44971.95182870371</v>
+      </c>
+      <c r="M110" s="2">
+        <v>44967</v>
+      </c>
+      <c r="N110" t="s">
+        <v>222</v>
+      </c>
+      <c r="O110" t="s">
+        <v>237</v>
+      </c>
+      <c r="P110" s="2">
+        <v>44971</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>246</v>
+      </c>
+      <c r="R110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111">
+        <v>60368</v>
+      </c>
+      <c r="E111">
+        <v>60368</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>4739175.82</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>4739175.82</v>
+      </c>
+      <c r="L111" s="2">
+        <v>44971.999375</v>
+      </c>
+      <c r="M111" s="2">
+        <v>44967</v>
+      </c>
+      <c r="N111" t="s">
+        <v>222</v>
+      </c>
+      <c r="O111" t="s">
+        <v>237</v>
+      </c>
+      <c r="P111" s="2">
+        <v>44971</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>246</v>
+      </c>
+      <c r="R111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112">
+        <v>60370</v>
+      </c>
+      <c r="E112">
+        <v>60370</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>4746145.82</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>4746145.82</v>
+      </c>
+      <c r="L112" s="2">
+        <v>44971.999375</v>
+      </c>
+      <c r="M112" s="2">
+        <v>44967</v>
+      </c>
+      <c r="N112" t="s">
+        <v>222</v>
+      </c>
+      <c r="O112" t="s">
+        <v>238</v>
+      </c>
+      <c r="P112" s="2">
+        <v>44971</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>246</v>
+      </c>
+      <c r="R112" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113">
+        <v>72889</v>
+      </c>
+      <c r="E113">
+        <v>72889</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>5504725.82</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>5504725.82</v>
+      </c>
+      <c r="L113" s="2">
+        <v>44976.99824074074</v>
+      </c>
+      <c r="M113" s="2">
+        <v>44967</v>
+      </c>
+      <c r="N113" t="s">
+        <v>222</v>
+      </c>
+      <c r="O113" t="s">
+        <v>239</v>
+      </c>
+      <c r="P113" s="2">
+        <v>44976</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>246</v>
+      </c>
+      <c r="R113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114">
+        <v>75052</v>
+      </c>
+      <c r="E114">
+        <v>75052</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>5616123.82</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>5616123.82</v>
+      </c>
+      <c r="L114" s="2">
+        <v>44977.99928240741</v>
+      </c>
+      <c r="M114" s="2">
+        <v>44967</v>
+      </c>
+      <c r="N114" t="s">
+        <v>222</v>
+      </c>
+      <c r="O114" t="s">
+        <v>239</v>
+      </c>
+      <c r="P114" s="2">
+        <v>44977</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>246</v>
+      </c>
+      <c r="R114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115">
+        <v>75052</v>
+      </c>
+      <c r="E115">
+        <v>75052</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>129</v>
+      </c>
+      <c r="I115" t="s">
+        <v>133</v>
+      </c>
+      <c r="J115" t="s">
+        <v>133</v>
+      </c>
+      <c r="K115" t="s">
+        <v>129</v>
+      </c>
+      <c r="L115" t="s">
+        <v>188</v>
+      </c>
+      <c r="M115" t="s">
+        <v>214</v>
+      </c>
+      <c r="N115" t="s">
+        <v>222</v>
+      </c>
+      <c r="O115" t="s">
+        <v>239</v>
+      </c>
+      <c r="P115" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>246</v>
+      </c>
+      <c r="R115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116">
+        <v>81488</v>
+      </c>
+      <c r="E116">
+        <v>81488</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>130</v>
+      </c>
+      <c r="I116" t="s">
+        <v>133</v>
+      </c>
+      <c r="J116" t="s">
+        <v>133</v>
+      </c>
+      <c r="K116" t="s">
+        <v>130</v>
+      </c>
+      <c r="L116" t="s">
+        <v>189</v>
+      </c>
+      <c r="M116" t="s">
+        <v>215</v>
+      </c>
+      <c r="N116" t="s">
+        <v>222</v>
+      </c>
+      <c r="O116" t="s">
+        <v>239</v>
+      </c>
+      <c r="P116" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>246</v>
+      </c>
+      <c r="R116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117">
+        <v>88359</v>
+      </c>
+      <c r="E117">
+        <v>88358</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>131</v>
+      </c>
+      <c r="I117" t="s">
+        <v>134</v>
+      </c>
+      <c r="J117" t="s">
+        <v>133</v>
+      </c>
+      <c r="K117" t="s">
+        <v>136</v>
+      </c>
+      <c r="L117" t="s">
+        <v>190</v>
+      </c>
+      <c r="M117" t="s">
+        <v>215</v>
+      </c>
+      <c r="N117" t="s">
+        <v>222</v>
+      </c>
+      <c r="O117" t="s">
+        <v>240</v>
+      </c>
+      <c r="P117" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
